--- a/BAfc_claude_code/figures/supplementary_figure_3/supplementary_figure_3_data.xlsx
+++ b/BAfc_claude_code/figures/supplementary_figure_3/supplementary_figure_3_data.xlsx
@@ -7,22 +7,25 @@
   </bookViews>
   <sheets>
     <sheet name="Summary_Stats" sheetId="1" r:id="rId2"/>
-    <sheet name="RawData_Individual_Neurons" sheetId="2" r:id="rId4"/>
+    <sheet name="RawData_PeakFR_RespLen" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1051" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1033" uniqueCount="71">
   <si>
-    <t>LA PN vs IN: Delta Peak FR and Response Length</t>
+    <t>LA PN vs IN: Peak FR and Response Length</t>
   </si>
   <si>
     <t>--- CS-sel ---</t>
   </si>
   <si>
     <t>PN (n=34)</t>
+  </si>
+  <si>
+    <t>Stimulus</t>
   </si>
   <si>
     <t>CS</t>
@@ -34,13 +37,22 @@
     <t>CS+US</t>
   </si>
   <si>
-    <t>CS vs US</t>
+    <t>Statistical Tests:</t>
   </si>
   <si>
-    <t>CS vs CS+US</t>
+    <t>Friedman test p-value:</t>
   </si>
   <si>
-    <t>US vs CS+US</t>
+    <t>Post-hoc (Wilcoxon signed-rank):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CS vs US:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CS vs CS+US:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  US vs CS+US:</t>
   </si>
   <si>
     <t>IN: No neurons</t>
@@ -64,79 +76,55 @@
     <t>IN (n=7)</t>
   </si>
   <si>
-    <t>Delta Peak FR (Hz)</t>
+    <t xml:space="preserve">  (Post-hoc not performed - Both Friedman tests n.s.)</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>Peak FR Mean (Hz)</t>
   </si>
   <si>
-    <t>Statistical Tests (Wilcoxon signed-rank)</t>
+    <t>Peak FR</t>
   </si>
   <si>
-    <t>p = 0.0000 ***</t>
+    <t>Peak FR SEM (Hz)</t>
   </si>
   <si>
-    <t>p = 0.0002 ***</t>
+    <t>***</t>
   </si>
   <si>
-    <t>Response Length (ms)</t>
+    <t>**</t>
   </si>
   <si>
-    <t>p = 0.0001 ***</t>
+    <t>*</t>
   </si>
   <si>
-    <t>p = 0.0006 ***</t>
+    <t>n.s.</t>
   </si>
   <si>
-    <t>p = 0.1250 n.s.</t>
+    <t>Peak FR Median (Hz)</t>
   </si>
   <si>
-    <t>p = 0.2500 n.s.</t>
+    <t>Peak FR SD (Hz)</t>
   </si>
   <si>
-    <t>p = 0.8519 n.s.</t>
+    <t>Resp Length Mean (ms)</t>
   </si>
   <si>
-    <t>p = 0.2778 n.s.</t>
+    <t>Response Length</t>
   </si>
   <si>
-    <t>p = 0.0004 ***</t>
+    <t>Resp Length SEM (ms)</t>
   </si>
   <si>
-    <t>p = 0.3715 n.s.</t>
+    <t>Resp Length Median (ms)</t>
   </si>
   <si>
-    <t>p = 0.0084 **</t>
+    <t>Resp Length SD (ms)</t>
   </si>
   <si>
-    <t>p = 0.0010 **</t>
+    <t>LA PN vs IN: Individual Neuron Peak FR and Response Length Values</t>
   </si>
   <si>
-    <t>p = 0.5781 n.s.</t>
-  </si>
-  <si>
-    <t>p = 0.2969 n.s.</t>
-  </si>
-  <si>
-    <t>p = 0.6875 n.s.</t>
-  </si>
-  <si>
-    <t>p = 0.9375 n.s.</t>
-  </si>
-  <si>
-    <t>p = 0.5625 n.s.</t>
-  </si>
-  <si>
-    <t>SEM</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>LA PN vs IN: Individual Neuron Values</t>
+    <t>These are the individual data points used to calculate means and SEMs</t>
   </si>
   <si>
     <t>Local #</t>
@@ -223,13 +211,13 @@
     <t>Inhibited</t>
   </si>
   <si>
-    <t>Delta FR CS (Hz)</t>
+    <t>Peak FR CS (Hz)</t>
   </si>
   <si>
-    <t>Delta FR US (Hz)</t>
+    <t>Peak FR US (Hz)</t>
   </si>
   <si>
-    <t>Delta FR CS+US (Hz)</t>
+    <t>Peak FR CS+US (Hz)</t>
   </si>
   <si>
     <t>Response Length CS (ms)</t>
@@ -284,17 +272,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="true"/>
-    <col min="2" max="2" width="35.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="43.6640625" customWidth="true"/>
+    <col min="2" max="2" width="16" customWidth="true"/>
+    <col min="3" max="3" width="14.88671875" customWidth="true"/>
+    <col min="4" max="4" width="17.44140625" customWidth="true"/>
+    <col min="5" max="5" width="13.44140625" customWidth="true"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="19.77734375" customWidth="true"/>
+    <col min="8" max="8" width="18.6640625" customWidth="true"/>
+    <col min="9" max="9" width="21.21875" customWidth="true"/>
+    <col min="10" max="10" width="17.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -305,6 +298,11 @@
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" s="0"/>
@@ -312,6 +310,11 @@
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
@@ -321,1269 +324,1413 @@
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="0"/>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5">
-      <c r="A5" s="0"/>
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>39.914382190182415</v>
+        <v>45.576204024051648</v>
       </c>
       <c r="C6" s="0">
-        <v>5.3291094099886571</v>
+        <v>5.9119211925156989</v>
       </c>
       <c r="D6" s="0">
-        <v>33.847533142303618</v>
+        <v>40.362089101488657</v>
       </c>
       <c r="E6" s="0">
-        <v>31.073780612011284</v>
+        <v>34.472128079675507</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0">
+        <v>221.91176470588235</v>
+      </c>
+      <c r="H6" s="0">
+        <v>29.129355844575262</v>
+      </c>
+      <c r="I6" s="0">
+        <v>181.5</v>
+      </c>
+      <c r="J6" s="0">
+        <v>169.85187265754917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>12.987228621602249</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>2.2238191314937374</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>8.4762094421818688</v>
       </c>
       <c r="E7" s="0">
+        <v>12.96698237857664</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>13.674553495501343</v>
+        <v>24.415775926128102</v>
       </c>
       <c r="C8" s="0">
-        <v>4.4876075136036828</v>
+        <v>4.7658314049906947</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>16.873748198384774</v>
       </c>
       <c r="E8" s="0">
-        <v>26.167023534769402</v>
+        <v>27.789333661443735</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0">
+        <v>76.411764705882348</v>
+      </c>
+      <c r="H8" s="0">
+        <v>26.465937400895626</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>154.32160783660947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0"/>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="0">
+        <v>3.1517441808340211e-14</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0">
+        <v>1.3984562393200216e-12</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="0"/>
+      <c r="A13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0">
+        <v>3.6528331903033148e-07</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0">
+        <v>3.6528331903033148e-07</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0" t="s">
-        <v>17</v>
+      <c r="A14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0">
+        <v>4.3716141033288724e-07</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0">
+        <v>1.2537364076799402e-06</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0">
-        <v>221.91176470588235</v>
-      </c>
-      <c r="C15" s="0">
-        <v>29.129355844575262</v>
-      </c>
-      <c r="D15" s="0">
-        <v>181.5</v>
-      </c>
-      <c r="E15" s="0">
-        <v>169.85187265754917</v>
-      </c>
+        <v>6.8158827784785584e-07</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0">
+        <v>0.000244140625</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0">
-        <v>0</v>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="0">
-        <v>76.411764705882348</v>
-      </c>
-      <c r="C17" s="0">
-        <v>26.465937400895626</v>
-      </c>
-      <c r="D17" s="0">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0">
-        <v>154.32160783660947</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0"/>
-      <c r="B18" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
+      <c r="A22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0">
+        <v>10.391046829072851</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1.3927117793804857</v>
+      </c>
+      <c r="D22" s="0">
+        <v>7.1558550047495064</v>
+      </c>
+      <c r="E22" s="0">
+        <v>9.4458308591440119</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="B23" s="0">
+        <v>34.950894976058287</v>
+      </c>
+      <c r="C23" s="0">
+        <v>3.3860484164925113</v>
+      </c>
+      <c r="D23" s="0">
+        <v>30.344738914039365</v>
+      </c>
+      <c r="E23" s="0">
+        <v>22.965297699490996</v>
+      </c>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0">
+        <v>236.69565217391303</v>
+      </c>
+      <c r="H23" s="0">
+        <v>28.429281182707157</v>
+      </c>
+      <c r="I23" s="0">
+        <v>149.50000000000003</v>
+      </c>
+      <c r="J23" s="0">
+        <v>192.81676616417374</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
+      <c r="A24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0">
+        <v>33.019630909491966</v>
+      </c>
+      <c r="C24" s="0">
+        <v>3.5000161568804091</v>
+      </c>
+      <c r="D24" s="0">
+        <v>28.522666268627169</v>
+      </c>
+      <c r="E24" s="0">
+        <v>23.738264522232871</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0">
+        <v>166.06521739130434</v>
+      </c>
+      <c r="H24" s="0">
+        <v>23.089604959220562</v>
+      </c>
+      <c r="I24" s="0">
+        <v>114.5</v>
+      </c>
+      <c r="J24" s="0">
+        <v>156.6013200134395</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="A25" s="0"/>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0" t="s">
-        <v>17</v>
+      <c r="A27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="0">
+        <v>7.48957308786643e-17</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0">
+        <v>9.7762196014356758e-15</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B29" s="0">
-        <v>29.849383291733428</v>
-      </c>
-      <c r="C29" s="0">
-        <v>3.2119116426255454</v>
-      </c>
-      <c r="D29" s="0">
-        <v>25.072561323624377</v>
-      </c>
-      <c r="E29" s="0">
-        <v>21.784244636928367</v>
-      </c>
+        <v>3.5229504763988479e-09</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0">
+        <v>7.613718409950962e-09</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B30" s="0">
-        <v>23.59472302321015</v>
-      </c>
-      <c r="C30" s="0">
-        <v>2.9233747650346271</v>
-      </c>
-      <c r="D30" s="0">
-        <v>22.486896476440595</v>
-      </c>
-      <c r="E30" s="0">
-        <v>19.827292320806137</v>
-      </c>
+        <v>3.5229504763988479e-09</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0">
+        <v>7.7367001513881122e-08</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="0"/>
+      <c r="A31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.0028072713736968088</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0">
+        <v>0.00056300960591412492</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="0"/>
       <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
+      <c r="A35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0">
+        <v>44.285971065532813</v>
+      </c>
+      <c r="C35" s="0">
+        <v>6.5487223575891989</v>
+      </c>
+      <c r="D35" s="0">
+        <v>43.287797712184215</v>
+      </c>
+      <c r="E35" s="0">
+        <v>13.097444715178398</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>39</v>
+      <c r="A36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0">
+        <v>76.661496586675739</v>
+      </c>
+      <c r="C36" s="0">
+        <v>9.6795080290173114</v>
+      </c>
+      <c r="D36" s="0">
+        <v>80.673598120741161</v>
+      </c>
+      <c r="E36" s="0">
+        <v>19.359016058034623</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0">
+        <v>126.25000000000003</v>
+      </c>
+      <c r="H36" s="0">
+        <v>48.638761977117248</v>
+      </c>
+      <c r="I36" s="0">
+        <v>93.500000000000057</v>
+      </c>
+      <c r="J36" s="0">
+        <v>97.277523954234496</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" s="0">
-        <v>0</v>
+        <v>78.5630194942066</v>
       </c>
       <c r="C37" s="0">
-        <v>0</v>
+        <v>10.019462904812428</v>
       </c>
       <c r="D37" s="0">
-        <v>0</v>
+        <v>82.274692335288691</v>
       </c>
       <c r="E37" s="0">
-        <v>0</v>
+        <v>20.038925809624857</v>
+      </c>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0">
+        <v>189.5</v>
+      </c>
+      <c r="H37" s="0">
+        <v>70.081500174201949</v>
+      </c>
+      <c r="I37" s="0">
+        <v>186</v>
+      </c>
+      <c r="J37" s="0">
+        <v>140.1630003484039</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="0">
-        <v>236.69565217391303</v>
-      </c>
-      <c r="C38" s="0">
-        <v>28.429281182707157</v>
-      </c>
-      <c r="D38" s="0">
-        <v>149.50000000000003</v>
-      </c>
-      <c r="E38" s="0">
-        <v>192.81676616417374</v>
-      </c>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="0">
-        <v>166.06521739130434</v>
-      </c>
-      <c r="C39" s="0">
-        <v>23.089604959220562</v>
-      </c>
-      <c r="D39" s="0">
-        <v>114.5</v>
-      </c>
-      <c r="E39" s="0">
-        <v>156.6013200134395</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="0"/>
+      <c r="A40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.038774207831722009</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0">
+        <v>0.018315638888734182</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B41" s="0"/>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.125</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0">
+        <v>0.125</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0.125</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="D43" s="0"/>
       <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0">
+        <v>0.125</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
+      <c r="A44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="D44" s="0"/>
       <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0">
+        <v>0.125</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0"/>
-      <c r="B46" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>39</v>
-      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="0">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0">
-        <v>0</v>
-      </c>
-      <c r="D47" s="0">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="0">
-        <v>50.921539060841525</v>
-      </c>
-      <c r="C48" s="0">
-        <v>5.6731001018005731</v>
-      </c>
-      <c r="D48" s="0">
-        <v>52.908106370766369</v>
-      </c>
-      <c r="E48" s="0">
-        <v>11.346200203601146</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="0">
-        <v>52.823061968372372</v>
-      </c>
-      <c r="C49" s="0">
-        <v>6.1766530548557252</v>
-      </c>
-      <c r="D49" s="0">
-        <v>54.314361970506148</v>
-      </c>
-      <c r="E49" s="0">
-        <v>12.35330610971145</v>
+        <v>3</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
+      <c r="A50" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="0">
+        <v>53.212450888970416</v>
+      </c>
+      <c r="C50" s="0">
+        <v>7.3284259158020157</v>
+      </c>
+      <c r="D50" s="0">
+        <v>38.704968855748504</v>
+      </c>
+      <c r="E50" s="0">
+        <v>48.61127813326388</v>
+      </c>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0">
+        <v>205.65909090909091</v>
+      </c>
+      <c r="H50" s="0">
+        <v>31.919758393184942</v>
+      </c>
+      <c r="I50" s="0">
+        <v>127</v>
+      </c>
+      <c r="J50" s="0">
+        <v>211.73172397798405</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="0">
+        <v>51.665986958675326</v>
+      </c>
+      <c r="C51" s="0">
+        <v>6.0087176377330067</v>
+      </c>
+      <c r="D51" s="0">
+        <v>39.460987756221016</v>
+      </c>
+      <c r="E51" s="0">
+        <v>39.857323751102051</v>
+      </c>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0">
+        <v>222.29545454545453</v>
+      </c>
+      <c r="H51" s="0">
+        <v>28.819617972297813</v>
+      </c>
+      <c r="I51" s="0">
+        <v>140.5</v>
+      </c>
+      <c r="J51" s="0">
+        <v>191.16771883098988</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="B52" s="0">
+        <v>64.218191773647931</v>
+      </c>
+      <c r="C52" s="0">
+        <v>10.223060725115108</v>
+      </c>
+      <c r="D52" s="0">
+        <v>40.83921556166986</v>
+      </c>
+      <c r="E52" s="0">
+        <v>67.81211326845083</v>
+      </c>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0">
+        <v>289.36363636363637</v>
+      </c>
+      <c r="H52" s="0">
+        <v>35.116900680933632</v>
+      </c>
+      <c r="I52" s="0">
+        <v>247</v>
+      </c>
+      <c r="J52" s="0">
+        <v>232.93916671766581</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
     </row>
     <row r="54">
-      <c r="A54" s="0"/>
+      <c r="A54" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="B54" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" s="0"/>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
     </row>
     <row r="55">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0" t="s">
-        <v>17</v>
+      <c r="A55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0.0062938531133371316</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>39</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0">
+        <v>0.0018673462116151416</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="0">
-        <v>0</v>
-      </c>
-      <c r="C56" s="0">
-        <v>0</v>
-      </c>
-      <c r="D56" s="0">
-        <v>0</v>
-      </c>
-      <c r="E56" s="0">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B57" s="0">
-        <v>126.25000000000003</v>
-      </c>
-      <c r="C57" s="0">
-        <v>48.638761977117248</v>
-      </c>
-      <c r="D57" s="0">
-        <v>93.500000000000057</v>
-      </c>
-      <c r="E57" s="0">
-        <v>97.277523954234496</v>
-      </c>
+        <v>0.76156599070931141</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0">
+        <v>0.37154279948729851</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B58" s="0">
-        <v>189.5</v>
-      </c>
-      <c r="C58" s="0">
-        <v>70.081500174201949</v>
-      </c>
-      <c r="D58" s="0">
-        <v>186</v>
-      </c>
-      <c r="E58" s="0">
-        <v>140.1630003484039</v>
-      </c>
+        <v>0.028235682511073907</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0">
+        <v>0.0083523080144000533</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
     </row>
     <row r="59">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="0"/>
+      <c r="A59" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="0">
+        <v>1.4935231759767615e-05</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="D59" s="0"/>
       <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0">
+        <v>0.001006668466739539</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
       <c r="C60" s="0"/>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B61" s="0"/>
       <c r="C61" s="0"/>
       <c r="D61" s="0"/>
       <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="0"/>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
+      <c r="A63" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="0">
+        <v>132.88674722146033</v>
+      </c>
+      <c r="C63" s="0">
+        <v>25.619584875844044</v>
+      </c>
+      <c r="D63" s="0">
+        <v>102.39784319731154</v>
+      </c>
+      <c r="E63" s="0">
+        <v>67.783050274194935</v>
+      </c>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0">
+        <v>298.57142857142856</v>
+      </c>
+      <c r="H63" s="0">
+        <v>127.23634871912253</v>
+      </c>
+      <c r="I63" s="0">
+        <v>139</v>
+      </c>
+      <c r="J63" s="0">
+        <v>336.63573643868989</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
+      <c r="A64" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="0">
+        <v>224.59875817796225</v>
+      </c>
+      <c r="C64" s="0">
+        <v>49.830642007284254</v>
+      </c>
+      <c r="D64" s="0">
+        <v>203.92658092314397</v>
+      </c>
+      <c r="E64" s="0">
+        <v>131.83948642196259</v>
+      </c>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0">
+        <v>346.85714285714283</v>
+      </c>
+      <c r="H64" s="0">
+        <v>120.74814965977119</v>
+      </c>
+      <c r="I64" s="0">
+        <v>384</v>
+      </c>
+      <c r="J64" s="0">
+        <v>319.46957527096305</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="B65" s="0">
+        <v>225.95691704396774</v>
+      </c>
+      <c r="C65" s="0">
+        <v>56.740656929846907</v>
+      </c>
+      <c r="D65" s="0">
+        <v>180.66153870595545</v>
+      </c>
+      <c r="E65" s="0">
+        <v>150.1216674628086</v>
+      </c>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0">
+        <v>553.14285714285711</v>
+      </c>
+      <c r="H65" s="0">
+        <v>115.5033350521242</v>
+      </c>
+      <c r="I65" s="0">
+        <v>653</v>
+      </c>
+      <c r="J65" s="0">
+        <v>305.59310014649031</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
     </row>
     <row r="67">
-      <c r="A67" s="0"/>
+      <c r="A67" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="B67" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B68" s="0">
-        <v>43.464163321852752</v>
-      </c>
-      <c r="C68" s="0">
-        <v>6.4672293861860544</v>
-      </c>
-      <c r="D68" s="0">
-        <v>33.906654546788502</v>
-      </c>
-      <c r="E68" s="0">
-        <v>42.898746614279204</v>
-      </c>
+        <v>0.06625225915226178</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0">
+        <v>0.77162294671541087</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="0">
-        <v>40.360297573664695</v>
-      </c>
-      <c r="C69" s="0">
-        <v>5.2485596174002058</v>
-      </c>
-      <c r="D69" s="0">
-        <v>32.07903979928426</v>
-      </c>
-      <c r="E69" s="0">
-        <v>34.815005881455548</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="0">
-        <v>49.182049983662502</v>
-      </c>
-      <c r="C70" s="0">
-        <v>9.4683968055007082</v>
-      </c>
-      <c r="D70" s="0">
-        <v>34.351394933861314</v>
-      </c>
-      <c r="E70" s="0">
-        <v>62.806239140091051</v>
-      </c>
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0"/>
-      <c r="B71" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="B71" s="0"/>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="0"/>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="0"/>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="0">
-        <v>205.65909090909091</v>
-      </c>
-      <c r="C77" s="0">
-        <v>31.919758393184942</v>
-      </c>
-      <c r="D77" s="0">
-        <v>127</v>
-      </c>
-      <c r="E77" s="0">
-        <v>211.73172397798405</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="0">
-        <v>222.29545454545453</v>
-      </c>
-      <c r="C78" s="0">
-        <v>28.819617972297813</v>
-      </c>
-      <c r="D78" s="0">
-        <v>140.5</v>
-      </c>
-      <c r="E78" s="0">
-        <v>191.16771883098988</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="0">
-        <v>289.36363636363637</v>
-      </c>
-      <c r="C79" s="0">
-        <v>35.116900680933632</v>
-      </c>
-      <c r="D79" s="0">
-        <v>247</v>
-      </c>
-      <c r="E79" s="0">
-        <v>232.93916671766581</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="0"/>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="0"/>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="0"/>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="0"/>
-      <c r="B84" s="0"/>
-      <c r="C84" s="0"/>
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="0"/>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="0"/>
-      <c r="B86" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="0">
-        <v>80.058578628292608</v>
-      </c>
-      <c r="C87" s="0">
-        <v>20.554085837090955</v>
-      </c>
-      <c r="D87" s="0">
-        <v>78.297854217184124</v>
-      </c>
-      <c r="E87" s="0">
-        <v>54.380999551217535</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="0">
-        <v>149.80047546790706</v>
-      </c>
-      <c r="C88" s="0">
-        <v>61.306693568658339</v>
-      </c>
-      <c r="D88" s="0">
-        <v>141.64665496313069</v>
-      </c>
-      <c r="E88" s="0">
-        <v>162.20226488631292</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="0">
-        <v>178.10730562052217</v>
-      </c>
-      <c r="C89" s="0">
-        <v>61.968505184801607</v>
-      </c>
-      <c r="D89" s="0">
-        <v>135.60774044346982</v>
-      </c>
-      <c r="E89" s="0">
-        <v>163.95325383740175</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0"/>
-      <c r="B90" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="0"/>
-      <c r="D90" s="0"/>
-      <c r="E90" s="0"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="0"/>
-      <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="0"/>
-      <c r="D92" s="0"/>
-      <c r="E92" s="0"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="0"/>
-      <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="0"/>
-      <c r="B94" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="0"/>
-      <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="0">
-        <v>298.57142857142856</v>
-      </c>
-      <c r="C96" s="0">
-        <v>127.23634871912253</v>
-      </c>
-      <c r="D96" s="0">
-        <v>139</v>
-      </c>
-      <c r="E96" s="0">
-        <v>336.63573643868989</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="0">
-        <v>346.85714285714283</v>
-      </c>
-      <c r="C97" s="0">
-        <v>120.74814965977119</v>
-      </c>
-      <c r="D97" s="0">
-        <v>384</v>
-      </c>
-      <c r="E97" s="0">
-        <v>319.46957527096305</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="0">
-        <v>553.14285714285711</v>
-      </c>
-      <c r="C98" s="0">
-        <v>115.5033350521242</v>
-      </c>
-      <c r="D98" s="0">
-        <v>653</v>
-      </c>
-      <c r="E98" s="0">
-        <v>305.59310014649031</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0"/>
-      <c r="B99" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="0"/>
-      <c r="D99" s="0"/>
-      <c r="E99" s="0"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" s="0"/>
-      <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="0"/>
-      <c r="B103" s="0"/>
-      <c r="C103" s="0"/>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="0"/>
-      <c r="B104" s="0"/>
-      <c r="C104" s="0"/>
-      <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
+      <c r="F71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1597,24 +1744,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.28515625" customWidth="true"/>
-    <col min="3" max="3" width="11.140625" customWidth="true"/>
-    <col min="4" max="4" width="9.28515625" customWidth="true"/>
-    <col min="5" max="5" width="9.42578125" customWidth="true"/>
+    <col min="1" max="1" width="57.88671875" customWidth="true"/>
+    <col min="2" max="2" width="11.109375" customWidth="true"/>
+    <col min="3" max="3" width="10.88671875" customWidth="true"/>
+    <col min="4" max="4" width="8.33203125" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" customWidth="true"/>
     <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="15" customWidth="true"/>
-    <col min="8" max="8" width="15.140625" customWidth="true"/>
-    <col min="9" max="9" width="18.28515625" customWidth="true"/>
+    <col min="7" max="7" width="13.33203125" customWidth="true"/>
+    <col min="8" max="8" width="13.5546875" customWidth="true"/>
+    <col min="9" max="9" width="16.5546875" customWidth="true"/>
     <col min="10" max="10" width="9.140625"/>
-    <col min="11" max="11" width="23.140625" customWidth="true"/>
-    <col min="12" max="12" width="23.28515625" customWidth="true"/>
-    <col min="13" max="13" width="26.42578125" customWidth="true"/>
+    <col min="11" max="11" width="21" customWidth="true"/>
+    <col min="12" max="12" width="21.21875" customWidth="true"/>
+    <col min="13" max="13" width="24.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1630,7 +1777,9 @@
       <c r="M1"/>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1646,39 +1795,39 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1689,23 +1838,23 @@
         <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>16.122972484671585</v>
+        <v>18.30701186248869</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>13.467122392345527</v>
       </c>
       <c r="I4">
-        <v>16.873183358170024</v>
+        <v>19.057222735987128</v>
       </c>
       <c r="J4"/>
       <c r="K4">
@@ -1726,23 +1875,23 @@
         <v>924</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5"/>
       <c r="G5">
-        <v>22.965015059405655</v>
+        <v>26.455156452802949</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.1993520281356833</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>9.1863035492143492</v>
       </c>
       <c r="J5"/>
       <c r="K5">
@@ -1763,23 +1912,23 @@
         <v>487</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F6"/>
       <c r="G6">
-        <v>40.393081239438921</v>
+        <v>54.065445232189909</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>39.548991187833884</v>
       </c>
       <c r="I6">
-        <v>37.458387182432354</v>
+        <v>51.130751175183342</v>
       </c>
       <c r="J6"/>
       <c r="K6">
@@ -1800,23 +1949,23 @@
         <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7"/>
       <c r="G7">
-        <v>32.592910927713959</v>
+        <v>36.206730291410018</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>15.979766489236132</v>
       </c>
       <c r="I7">
-        <v>31.030928528400281</v>
+        <v>34.644747892096341</v>
       </c>
       <c r="J7"/>
       <c r="K7">
@@ -1837,23 +1986,23 @@
         <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8"/>
       <c r="G8">
-        <v>30.63758274770899</v>
+        <v>37.035970234231257</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>23.2188144605093</v>
       </c>
       <c r="I8">
-        <v>29.92972022355967</v>
+        <v>36.328107710081937</v>
       </c>
       <c r="J8"/>
       <c r="K8">
@@ -1874,23 +2023,23 @@
         <v>431</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>41.032350264075383</v>
+        <v>51.740357548347625</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.227315165637767</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29.712055609272014</v>
       </c>
       <c r="J9"/>
       <c r="K9">
@@ -1911,23 +2060,23 @@
         <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F10"/>
       <c r="G10">
-        <v>14.136858059904405</v>
+        <v>14.570699242850528</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.7275850615477215</v>
       </c>
       <c r="I10">
-        <v>7.2728711892966862</v>
+        <v>7.7067123722428086</v>
       </c>
       <c r="J10"/>
       <c r="K10">
@@ -1948,23 +2097,23 @@
         <v>349</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F11"/>
       <c r="G11">
-        <v>15.822804677701209</v>
+        <v>16.679663297001156</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.711025534259047</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.8273419889684455</v>
       </c>
       <c r="J11"/>
       <c r="K11">
@@ -1985,23 +2134,23 @@
         <v>446</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F12"/>
       <c r="G12">
-        <v>44.299886739537911</v>
+        <v>52.145012984930553</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.9735572207039205</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>25.133209611028477</v>
       </c>
       <c r="J12"/>
       <c r="K12">
@@ -2022,23 +2171,23 @@
         <v>397</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13"/>
       <c r="G13">
-        <v>19.489373250363059</v>
+        <v>22.025760003606003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.4732149091904656</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.3205668811671067</v>
       </c>
       <c r="J13"/>
       <c r="K13">
@@ -2059,23 +2208,23 @@
         <v>583</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F14"/>
       <c r="G14">
-        <v>47.210954100912005</v>
+        <v>51.598046108788218</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.357818797686701</v>
       </c>
       <c r="I14">
-        <v>20.510175744014628</v>
+        <v>24.897267751890841</v>
       </c>
       <c r="J14"/>
       <c r="K14">
@@ -2096,23 +2245,23 @@
         <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F15"/>
       <c r="G15">
-        <v>24.431234245729584</v>
+        <v>27.116562150506972</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.3897980454437517</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.305429433765411</v>
       </c>
       <c r="J15"/>
       <c r="K15">
@@ -2133,23 +2282,23 @@
         <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F16"/>
       <c r="G16">
-        <v>15.964076555876742</v>
+        <v>16.898203243258433</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.6508566655053087</v>
       </c>
       <c r="I16">
-        <v>12.009726465597383</v>
+        <v>12.943853152979074</v>
       </c>
       <c r="J16"/>
       <c r="K16">
@@ -2170,23 +2319,23 @@
         <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F17"/>
       <c r="G17">
-        <v>42.509816529069269</v>
+        <v>47.368125089826741</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.3015622188584306</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>8.4095427508840466</v>
       </c>
       <c r="J17"/>
       <c r="K17">
@@ -2207,23 +2356,23 @@
         <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F18"/>
       <c r="G18">
-        <v>23.167940646787152</v>
+        <v>36.063192220199625</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.0582816294545312</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.590139507182267</v>
       </c>
       <c r="J18"/>
       <c r="K18">
@@ -2244,23 +2393,23 @@
         <v>498</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F19"/>
       <c r="G19">
-        <v>75.225953566592665</v>
+        <v>93.411827906535123</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>49.92133670336834</v>
       </c>
       <c r="I19">
-        <v>43.470115335661525</v>
+        <v>61.655989675603983</v>
       </c>
       <c r="J19"/>
       <c r="K19">
@@ -2281,23 +2430,23 @@
         <v>490</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F20"/>
       <c r="G20">
-        <v>28.467704673673285</v>
+        <v>31.390309388276592</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.8157266739550293</v>
       </c>
       <c r="I20">
-        <v>19.831486305159885</v>
+        <v>22.754091019763191</v>
       </c>
       <c r="J20"/>
       <c r="K20">
@@ -2318,23 +2467,23 @@
         <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F21"/>
       <c r="G21">
-        <v>24.420095960141783</v>
+        <v>27.581411210157114</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.6889258438357535</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>9.6607365923064386</v>
       </c>
       <c r="J21"/>
       <c r="K21">
@@ -2355,23 +2504,23 @@
         <v>361</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F22"/>
       <c r="G22">
-        <v>21.028600449142832</v>
+        <v>24.806046259530888</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.662745386368651</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.710133270573146</v>
       </c>
       <c r="J22"/>
       <c r="K22">
@@ -2392,23 +2541,23 @@
         <v>383</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F23"/>
       <c r="G23">
-        <v>35.10215535689327</v>
+        <v>43.688207968746056</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>30.881441986788598</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>33.648057950217236</v>
       </c>
       <c r="J23"/>
       <c r="K23">
@@ -2429,23 +2578,23 @@
         <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F24"/>
       <c r="G24">
-        <v>28.510089297898951</v>
+        <v>33.097115605230051</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.8484618519403888</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.145278262498444</v>
       </c>
       <c r="J24"/>
       <c r="K24">
@@ -2466,23 +2615,23 @@
         <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F25"/>
       <c r="G25">
-        <v>44.409309839198706</v>
+        <v>49.909026050774436</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>21.129668635804578</v>
       </c>
       <c r="I25">
-        <v>27.292936117047766</v>
+        <v>32.792652328623497</v>
       </c>
       <c r="J25"/>
       <c r="K25">
@@ -2503,23 +2652,23 @@
         <v>463</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F26"/>
       <c r="G26">
-        <v>41.518465702295174</v>
+        <v>49.881064760609192</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>13.784738707137633</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>18.442066963004141</v>
       </c>
       <c r="J26"/>
       <c r="K26">
@@ -2540,23 +2689,23 @@
         <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F27"/>
       <c r="G27">
-        <v>45.242791636849397</v>
+        <v>50.250709469707182</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>6.5424615910964308</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>9.6426918062114204</v>
       </c>
       <c r="J27"/>
       <c r="K27">
@@ -2577,23 +2726,23 @@
         <v>452</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F28"/>
       <c r="G28">
-        <v>46.963135976658236</v>
+        <v>51.265798886351504</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3.3808111212632541</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>12.496642465322724</v>
       </c>
       <c r="J28"/>
       <c r="K28">
@@ -2614,23 +2763,23 @@
         <v>552</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F29"/>
       <c r="G29">
-        <v>90.759542509193906</v>
+        <v>97.772555151317263</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>14.439752619431257</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>23.818452604172258</v>
       </c>
       <c r="J29"/>
       <c r="K29">
@@ -2651,23 +2800,23 @@
         <v>355</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F30"/>
       <c r="G30">
-        <v>8.6546780397110865</v>
+        <v>9.2761875697138834</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.1183411358682993</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2.6068952216416261</v>
       </c>
       <c r="J30"/>
       <c r="K30">
@@ -2688,23 +2837,23 @@
         <v>359</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F31"/>
       <c r="G31">
-        <v>41.894901355136419</v>
+        <v>47.620648644294924</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>18.541357622610519</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>24.254985684986959</v>
       </c>
       <c r="J31"/>
       <c r="K31">
@@ -2725,23 +2874,23 @@
         <v>492</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F32"/>
       <c r="G32">
-        <v>53.626218924565464</v>
+        <v>59.913359902963123</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>9.26064777235195</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>12.719763806903064</v>
       </c>
       <c r="J32"/>
       <c r="K32">
@@ -2762,23 +2911,23 @@
         <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F33"/>
       <c r="G33">
-        <v>43.623094481054181</v>
+        <v>44.995346558540824</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5.047803534989856</v>
       </c>
       <c r="I33">
-        <v>32.846743791498774</v>
+        <v>34.218995868985417</v>
       </c>
       <c r="J33"/>
       <c r="K33">
@@ -2799,23 +2948,23 @@
         <v>451</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F34"/>
       <c r="G34">
-        <v>123.34810039803747</v>
+        <v>128.67816030376133</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>11.406026529973596</v>
       </c>
       <c r="I34">
-        <v>52.533967975761385</v>
+        <v>57.864027881485242</v>
       </c>
       <c r="J34"/>
       <c r="K34">
@@ -2836,23 +2985,23 @@
         <v>441</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F35"/>
       <c r="G35">
-        <v>154.78059928101158</v>
+        <v>176.13476543810168</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>54.318981127237564</v>
       </c>
       <c r="I35">
-        <v>133.8745766304452</v>
+        <v>155.22874278753531</v>
       </c>
       <c r="J35"/>
       <c r="K35">
@@ -2873,23 +3022,23 @@
         <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F36"/>
       <c r="G36">
-        <v>12.216538994677625</v>
+        <v>14.851790013962182</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5.3388994823392784</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4.1991739448658656</v>
       </c>
       <c r="J36"/>
       <c r="K36">
@@ -2910,23 +3059,23 @@
         <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F37"/>
       <c r="G37">
-        <v>6.5201604945747231</v>
+        <v>6.7906697667441707</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1.152583001767163</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1.0837512317118279</v>
       </c>
       <c r="J37"/>
       <c r="K37">
@@ -2947,23 +3096,23 @@
         <v>509</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
         <v>61</v>
-      </c>
-      <c r="E38" t="s">
-        <v>65</v>
       </c>
       <c r="F38"/>
       <c r="G38">
-        <v>0</v>
+        <v>0.53123495575074131</v>
       </c>
       <c r="H38">
-        <v>12.527466096012013</v>
+        <v>12.535466096012012</v>
       </c>
       <c r="I38">
-        <v>13.423690472064765</v>
+        <v>13.431690472064764</v>
       </c>
       <c r="J38"/>
       <c r="K38">
@@ -2984,23 +3133,23 @@
         <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
         <v>61</v>
-      </c>
-      <c r="E39" t="s">
-        <v>65</v>
       </c>
       <c r="F39"/>
       <c r="G39">
-        <v>0</v>
+        <v>0.73261683758842766</v>
       </c>
       <c r="H39">
-        <v>17.211520265839173</v>
+        <v>17.531226458001367</v>
       </c>
       <c r="I39">
-        <v>10.922882754334873</v>
+        <v>11.242588946497067</v>
       </c>
       <c r="J39"/>
       <c r="K39">
@@ -3021,23 +3170,23 @@
         <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
         <v>61</v>
-      </c>
-      <c r="E40" t="s">
-        <v>65</v>
       </c>
       <c r="F40"/>
       <c r="G40">
-        <v>0</v>
+        <v>0.67096751310408409</v>
       </c>
       <c r="H40">
-        <v>12.506872601298527</v>
+        <v>12.602553980105665</v>
       </c>
       <c r="I40">
-        <v>13.804020793550137</v>
+        <v>13.899702172357275</v>
       </c>
       <c r="J40"/>
       <c r="K40">
@@ -3058,23 +3207,23 @@
         <v>499</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
         <v>61</v>
-      </c>
-      <c r="E41" t="s">
-        <v>65</v>
       </c>
       <c r="F41"/>
       <c r="G41">
-        <v>0</v>
+        <v>19.401322471485447</v>
       </c>
       <c r="H41">
-        <v>26.805635340020221</v>
+        <v>31.22520181231133</v>
       </c>
       <c r="I41">
-        <v>36.136577973191962</v>
+        <v>40.556144445483071</v>
       </c>
       <c r="J41"/>
       <c r="K41">
@@ -3095,23 +3244,23 @@
         <v>485</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
         <v>61</v>
-      </c>
-      <c r="E42" t="s">
-        <v>65</v>
       </c>
       <c r="F42"/>
       <c r="G42">
-        <v>0</v>
+        <v>1.3835666088696559</v>
       </c>
       <c r="H42">
-        <v>21.365377488058634</v>
+        <v>21.803747064119964</v>
       </c>
       <c r="I42">
-        <v>20.598126779697317</v>
+        <v>21.036496355758647</v>
       </c>
       <c r="J42"/>
       <c r="K42">
@@ -3132,23 +3281,23 @@
         <v>352</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
         <v>61</v>
-      </c>
-      <c r="E43" t="s">
-        <v>65</v>
       </c>
       <c r="F43"/>
       <c r="G43">
-        <v>0</v>
+        <v>0.43883855717082598</v>
       </c>
       <c r="H43">
-        <v>7.8287227794800174</v>
+        <v>8.2133112441111571</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.72985322170000089</v>
       </c>
       <c r="J43"/>
       <c r="K43">
@@ -3169,23 +3318,23 @@
         <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
         <v>61</v>
-      </c>
-      <c r="E44" t="s">
-        <v>65</v>
       </c>
       <c r="F44"/>
       <c r="G44">
-        <v>0</v>
+        <v>8.3149664948520314</v>
       </c>
       <c r="H44">
-        <v>25.504962232566768</v>
+        <v>29.259908837622426</v>
       </c>
       <c r="I44">
-        <v>25.408952443159475</v>
+        <v>29.163899048215132</v>
       </c>
       <c r="J44"/>
       <c r="K44">
@@ -3206,23 +3355,23 @@
         <v>237</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
         <v>61</v>
-      </c>
-      <c r="E45" t="s">
-        <v>65</v>
       </c>
       <c r="F45"/>
       <c r="G45">
-        <v>0</v>
+        <v>3.5785722229262635</v>
       </c>
       <c r="H45">
-        <v>10.737825343214423</v>
+        <v>11.70233935651347</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>11.4336109634268</v>
       </c>
       <c r="J45"/>
       <c r="K45">
@@ -3243,23 +3392,23 @@
         <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
         <v>61</v>
-      </c>
-      <c r="E46" t="s">
-        <v>65</v>
       </c>
       <c r="F46"/>
       <c r="G46">
-        <v>0</v>
+        <v>7.171694070676895</v>
       </c>
       <c r="H46">
-        <v>17.282420997958504</v>
+        <v>18.872341266659753</v>
       </c>
       <c r="I46">
-        <v>14.452012799329895</v>
+        <v>16.041933068031145</v>
       </c>
       <c r="J46"/>
       <c r="K46">
@@ -3280,23 +3429,23 @@
         <v>367</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
         <v>61</v>
-      </c>
-      <c r="E47" t="s">
-        <v>65</v>
       </c>
       <c r="F47"/>
       <c r="G47">
-        <v>0</v>
+        <v>3.3572538820859701</v>
       </c>
       <c r="H47">
-        <v>17.263804384501412</v>
+        <v>18.01459322197341</v>
       </c>
       <c r="I47">
-        <v>16.164875433445133</v>
+        <v>16.91566427091713</v>
       </c>
       <c r="J47"/>
       <c r="K47">
@@ -3317,23 +3466,23 @@
         <v>304</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
         <v>61</v>
-      </c>
-      <c r="E48" t="s">
-        <v>65</v>
       </c>
       <c r="F48"/>
       <c r="G48">
-        <v>0</v>
+        <v>31.641465913495139</v>
       </c>
       <c r="H48">
-        <v>37.074082727905889</v>
+        <v>46.042675697434312</v>
       </c>
       <c r="I48">
-        <v>31.408566705768877</v>
+        <v>40.3771596752973</v>
       </c>
       <c r="J48"/>
       <c r="K48">
@@ -3354,23 +3503,23 @@
         <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
         <v>61</v>
-      </c>
-      <c r="E49" t="s">
-        <v>65</v>
       </c>
       <c r="F49"/>
       <c r="G49">
-        <v>0</v>
+        <v>4.3323817085574943</v>
       </c>
       <c r="H49">
-        <v>24.640160414681983</v>
+        <v>28.338065594497017</v>
       </c>
       <c r="I49">
-        <v>20.634365688533041</v>
+        <v>24.332270868348076</v>
       </c>
       <c r="J49"/>
       <c r="K49">
@@ -3391,23 +3540,23 @@
         <v>882</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
         <v>61</v>
-      </c>
-      <c r="E50" t="s">
-        <v>65</v>
       </c>
       <c r="F50"/>
       <c r="G50">
-        <v>0</v>
+        <v>14.747245528428857</v>
       </c>
       <c r="H50">
-        <v>52.932548872874179</v>
+        <v>55.862881793719758</v>
       </c>
       <c r="I50">
-        <v>53.549101232495971</v>
+        <v>56.47943415334155</v>
       </c>
       <c r="J50"/>
       <c r="K50">
@@ -3428,23 +3577,23 @@
         <v>444</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
         <v>61</v>
-      </c>
-      <c r="E51" t="s">
-        <v>65</v>
       </c>
       <c r="F51"/>
       <c r="G51">
-        <v>0</v>
+        <v>5.1395127242713112</v>
       </c>
       <c r="H51">
-        <v>33.780616274183636</v>
+        <v>36.465837754318258</v>
       </c>
       <c r="I51">
-        <v>28.065244325845498</v>
+        <v>30.75046580598012</v>
       </c>
       <c r="J51"/>
       <c r="K51">
@@ -3465,23 +3614,23 @@
         <v>300</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
         <v>61</v>
-      </c>
-      <c r="E52" t="s">
-        <v>65</v>
       </c>
       <c r="F52"/>
       <c r="G52">
-        <v>0</v>
+        <v>2.8161763157379438</v>
       </c>
       <c r="H52">
-        <v>15.347352678047077</v>
+        <v>16.04211780171353</v>
       </c>
       <c r="I52">
-        <v>10.553668796541166</v>
+        <v>11.248433920207619</v>
       </c>
       <c r="J52"/>
       <c r="K52">
@@ -3502,23 +3651,23 @@
         <v>558</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
         <v>61</v>
-      </c>
-      <c r="E53" t="s">
-        <v>65</v>
       </c>
       <c r="F53"/>
       <c r="G53">
-        <v>0</v>
+        <v>35.896170803284868</v>
       </c>
       <c r="H53">
-        <v>109.41659695259155</v>
+        <v>118.68971354825752</v>
       </c>
       <c r="I53">
-        <v>95.071590544180083</v>
+        <v>104.34470713984605</v>
       </c>
       <c r="J53"/>
       <c r="K53">
@@ -3539,23 +3688,23 @@
         <v>235</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
         <v>61</v>
-      </c>
-      <c r="E54" t="s">
-        <v>65</v>
       </c>
       <c r="F54"/>
       <c r="G54">
-        <v>0</v>
+        <v>16.258145369890411</v>
       </c>
       <c r="H54">
-        <v>47.097481225978612</v>
+        <v>54.218419499896385</v>
       </c>
       <c r="I54">
-        <v>38.5653713715081</v>
+        <v>45.686309645425872</v>
       </c>
       <c r="J54"/>
       <c r="K54">
@@ -3576,23 +3725,23 @@
         <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
         <v>61</v>
-      </c>
-      <c r="E55" t="s">
-        <v>65</v>
       </c>
       <c r="F55"/>
       <c r="G55">
-        <v>0</v>
+        <v>26.388792724744235</v>
       </c>
       <c r="H55">
-        <v>34.631524198171768</v>
+        <v>50.570490863256801</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>49.069618366074948</v>
       </c>
       <c r="J55"/>
       <c r="K55">
@@ -3613,23 +3762,23 @@
         <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" t="s">
         <v>61</v>
-      </c>
-      <c r="E56" t="s">
-        <v>65</v>
       </c>
       <c r="F56"/>
       <c r="G56">
-        <v>0</v>
+        <v>2.6693943210649236</v>
       </c>
       <c r="H56">
-        <v>3.8595382337760431</v>
+        <v>4.0152826480760559</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3.0258342665463198</v>
       </c>
       <c r="J56"/>
       <c r="K56">
@@ -3650,23 +3799,23 @@
         <v>365</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
         <v>61</v>
-      </c>
-      <c r="E57" t="s">
-        <v>65</v>
       </c>
       <c r="F57"/>
       <c r="G57">
-        <v>0</v>
+        <v>3.6441822375608663</v>
       </c>
       <c r="H57">
-        <v>12.843929035883809</v>
+        <v>14.402015222794372</v>
       </c>
       <c r="I57">
-        <v>12.343337703366506</v>
+        <v>13.901423890277069</v>
       </c>
       <c r="J57"/>
       <c r="K57">
@@ -3687,23 +3836,23 @@
         <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
         <v>61</v>
-      </c>
-      <c r="E58" t="s">
-        <v>65</v>
       </c>
       <c r="F58"/>
       <c r="G58">
-        <v>0</v>
+        <v>0.22388983369904455</v>
       </c>
       <c r="H58">
-        <v>7.5756241420789481</v>
+        <v>7.6308459435623845</v>
       </c>
       <c r="I58">
-        <v>4.2040570942820619</v>
+        <v>4.2592788957654983</v>
       </c>
       <c r="J58"/>
       <c r="K58">
@@ -3724,23 +3873,23 @@
         <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
         <v>61</v>
-      </c>
-      <c r="E59" t="s">
-        <v>65</v>
       </c>
       <c r="F59"/>
       <c r="G59">
-        <v>0</v>
+        <v>2.9120974329776979</v>
       </c>
       <c r="H59">
-        <v>22.161804394678239</v>
+        <v>23.098708009572178</v>
       </c>
       <c r="I59">
-        <v>26.728347129675175</v>
+        <v>27.665250744569114</v>
       </c>
       <c r="J59"/>
       <c r="K59">
@@ -3761,23 +3910,23 @@
         <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
         <v>61</v>
-      </c>
-      <c r="E60" t="s">
-        <v>65</v>
       </c>
       <c r="F60"/>
       <c r="G60">
-        <v>0</v>
+        <v>4.4427194423702989</v>
       </c>
       <c r="H60">
-        <v>26.133469634887494</v>
+        <v>29.4642760157674</v>
       </c>
       <c r="I60">
-        <v>24.550627108159304</v>
+        <v>27.88143348903921</v>
       </c>
       <c r="J60"/>
       <c r="K60">
@@ -3798,23 +3947,23 @@
         <v>200</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" t="s">
         <v>61</v>
-      </c>
-      <c r="E61" t="s">
-        <v>65</v>
       </c>
       <c r="F61"/>
       <c r="G61">
-        <v>0</v>
+        <v>7.1400159388221187</v>
       </c>
       <c r="H61">
-        <v>30.438416869698461</v>
+        <v>33.389024380781962</v>
       </c>
       <c r="I61">
-        <v>27.997405105488081</v>
+        <v>30.948012616571582</v>
       </c>
       <c r="J61"/>
       <c r="K61">
@@ -3835,23 +3984,23 @@
         <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" t="s">
         <v>61</v>
-      </c>
-      <c r="E62" t="s">
-        <v>65</v>
       </c>
       <c r="F62"/>
       <c r="G62">
-        <v>0</v>
+        <v>0.48749001976280953</v>
       </c>
       <c r="H62">
-        <v>10.401334062708251</v>
+        <v>10.628541575608359</v>
       </c>
       <c r="I62">
-        <v>10.200462045833941</v>
+        <v>10.427669558734049</v>
       </c>
       <c r="J62"/>
       <c r="K62">
@@ -3872,23 +4021,23 @@
         <v>403</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" t="s">
         <v>61</v>
-      </c>
-      <c r="E63" t="s">
-        <v>65</v>
       </c>
       <c r="F63"/>
       <c r="G63">
-        <v>0</v>
+        <v>7.3998401684180051</v>
       </c>
       <c r="H63">
-        <v>20.822303022185629</v>
+        <v>23.383552569109813</v>
       </c>
       <c r="I63">
-        <v>21.446739815371465</v>
+        <v>24.00798936229565</v>
       </c>
       <c r="J63"/>
       <c r="K63">
@@ -3909,23 +4058,23 @@
         <v>896</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" t="s">
         <v>61</v>
-      </c>
-      <c r="E64" t="s">
-        <v>65</v>
       </c>
       <c r="F64"/>
       <c r="G64">
-        <v>0</v>
+        <v>19.581533873322215</v>
       </c>
       <c r="H64">
-        <v>29.214189743242827</v>
+        <v>40.324340620830803</v>
       </c>
       <c r="I64">
-        <v>26.986050295914289</v>
+        <v>38.096201173502266</v>
       </c>
       <c r="J64"/>
       <c r="K64">
@@ -3946,23 +4095,23 @@
         <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" t="s">
         <v>61</v>
-      </c>
-      <c r="E65" t="s">
-        <v>65</v>
       </c>
       <c r="F65"/>
       <c r="G65">
-        <v>0</v>
+        <v>6.6152466619547292</v>
       </c>
       <c r="H65">
-        <v>23.860182400389899</v>
+        <v>25.555680763940295</v>
       </c>
       <c r="I65">
-        <v>24.333026733813501</v>
+        <v>26.028525097363897</v>
       </c>
       <c r="J65"/>
       <c r="K65">
@@ -3983,23 +4132,23 @@
         <v>688</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" t="s">
         <v>61</v>
-      </c>
-      <c r="E66" t="s">
-        <v>65</v>
       </c>
       <c r="F66"/>
       <c r="G66">
-        <v>0</v>
+        <v>14.647696241667127</v>
       </c>
       <c r="H66">
-        <v>44.992825280481803</v>
+        <v>47.137828692022737</v>
       </c>
       <c r="I66">
-        <v>44.655893211859883</v>
+        <v>46.800896623400817</v>
       </c>
       <c r="J66"/>
       <c r="K66">
@@ -4020,23 +4169,23 @@
         <v>926</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
         <v>61</v>
-      </c>
-      <c r="E67" t="s">
-        <v>65</v>
       </c>
       <c r="F67"/>
       <c r="G67">
-        <v>0</v>
+        <v>3.4812619083950018</v>
       </c>
       <c r="H67">
-        <v>22.192434464634243</v>
+        <v>23.721238351155833</v>
       </c>
       <c r="I67">
-        <v>21.278593884629608</v>
+        <v>22.807397771151198</v>
       </c>
       <c r="J67"/>
       <c r="K67">
@@ -4057,23 +4206,23 @@
         <v>382</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" t="s">
         <v>61</v>
-      </c>
-      <c r="E68" t="s">
-        <v>65</v>
       </c>
       <c r="F68"/>
       <c r="G68">
-        <v>0</v>
+        <v>12.75328188623436</v>
       </c>
       <c r="H68">
-        <v>34.731700380784403</v>
+        <v>40.364797297272332</v>
       </c>
       <c r="I68">
-        <v>31.030642337091944</v>
+        <v>36.66373925357987</v>
       </c>
       <c r="J68"/>
       <c r="K68">
@@ -4094,23 +4243,23 @@
         <v>932</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
         <v>61</v>
-      </c>
-      <c r="E69" t="s">
-        <v>65</v>
       </c>
       <c r="F69"/>
       <c r="G69">
-        <v>0</v>
+        <v>2.1248880975718984</v>
       </c>
       <c r="H69">
-        <v>8.882358388882178</v>
+        <v>9.4044223026757994</v>
       </c>
       <c r="I69">
-        <v>6.6681626398997844</v>
+        <v>7.1902265536934058</v>
       </c>
       <c r="J69"/>
       <c r="K69">
@@ -4131,23 +4280,23 @@
         <v>929</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" t="s">
         <v>61</v>
-      </c>
-      <c r="E70" t="s">
-        <v>65</v>
       </c>
       <c r="F70"/>
       <c r="G70">
-        <v>0</v>
+        <v>5.0136647504857592</v>
       </c>
       <c r="H70">
-        <v>21.329207210573401</v>
+        <v>24.605639771536183</v>
       </c>
       <c r="I70">
-        <v>13.007368622736768</v>
+        <v>16.283801183699552</v>
       </c>
       <c r="J70"/>
       <c r="K70">
@@ -4168,23 +4317,23 @@
         <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" t="s">
         <v>61</v>
-      </c>
-      <c r="E71" t="s">
-        <v>65</v>
       </c>
       <c r="F71"/>
       <c r="G71">
-        <v>0</v>
+        <v>14.48074871822535</v>
       </c>
       <c r="H71">
-        <v>50.32001853406333</v>
+        <v>55.078642975926634</v>
       </c>
       <c r="I71">
-        <v>46.235482923136111</v>
+        <v>50.994107364999415</v>
       </c>
       <c r="J71"/>
       <c r="K71">
@@ -4205,23 +4354,23 @@
         <v>402</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" t="s">
         <v>61</v>
-      </c>
-      <c r="E72" t="s">
-        <v>65</v>
       </c>
       <c r="F72"/>
       <c r="G72">
-        <v>0</v>
+        <v>17.767175706486274</v>
       </c>
       <c r="H72">
-        <v>52.236800328426504</v>
+        <v>62.033053289386437</v>
       </c>
       <c r="I72">
-        <v>41.925971129125067</v>
+        <v>51.722224090085</v>
       </c>
       <c r="J72"/>
       <c r="K72">
@@ -4242,23 +4391,23 @@
         <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" t="s">
         <v>61</v>
-      </c>
-      <c r="E73" t="s">
-        <v>65</v>
       </c>
       <c r="F73"/>
       <c r="G73">
-        <v>0</v>
+        <v>9.6925255643706443</v>
       </c>
       <c r="H73">
-        <v>53.533699842613132</v>
+        <v>55.702806363262539</v>
       </c>
       <c r="I73">
-        <v>63.374241422655132</v>
+        <v>65.543347943304539</v>
       </c>
       <c r="J73"/>
       <c r="K73">
@@ -4279,23 +4428,23 @@
         <v>406</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" t="s">
         <v>61</v>
-      </c>
-      <c r="E74" t="s">
-        <v>65</v>
       </c>
       <c r="F74"/>
       <c r="G74">
-        <v>0</v>
+        <v>3.1879343781624123</v>
       </c>
       <c r="H74">
-        <v>30.502221911910311</v>
+        <v>34.090753746676214</v>
       </c>
       <c r="I74">
-        <v>27.173128832366551</v>
+        <v>30.76166066713245</v>
       </c>
       <c r="J74"/>
       <c r="K74">
@@ -4316,23 +4465,23 @@
         <v>927</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" t="s">
         <v>61</v>
-      </c>
-      <c r="E75" t="s">
-        <v>65</v>
       </c>
       <c r="F75"/>
       <c r="G75">
-        <v>0</v>
+        <v>7.2735340551001491</v>
       </c>
       <c r="H75">
-        <v>23.018747326416186</v>
+        <v>25.361377876811463</v>
       </c>
       <c r="I75">
-        <v>23.527053137509725</v>
+        <v>25.869683687905003</v>
       </c>
       <c r="J75"/>
       <c r="K75">
@@ -4353,23 +4502,23 @@
         <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" t="s">
         <v>61</v>
-      </c>
-      <c r="E76" t="s">
-        <v>65</v>
       </c>
       <c r="F76"/>
       <c r="G76">
-        <v>0</v>
+        <v>22.334065740806093</v>
       </c>
       <c r="H76">
-        <v>36.200364805140232</v>
+        <v>40.72293679263165</v>
       </c>
       <c r="I76">
-        <v>34.143266579655041</v>
+        <v>38.665838567146459</v>
       </c>
       <c r="J76"/>
       <c r="K76">
@@ -4390,23 +4539,23 @@
         <v>471</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" t="s">
         <v>61</v>
-      </c>
-      <c r="E77" t="s">
-        <v>65</v>
       </c>
       <c r="F77"/>
       <c r="G77">
-        <v>0</v>
+        <v>27.406091556229807</v>
       </c>
       <c r="H77">
-        <v>44.173421368826894</v>
+        <v>55.447223619014125</v>
       </c>
       <c r="I77">
-        <v>34.160611935290547</v>
+        <v>45.434414185477777</v>
       </c>
       <c r="J77"/>
       <c r="K77">
@@ -4427,23 +4576,23 @@
         <v>510</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" t="s">
         <v>61</v>
-      </c>
-      <c r="E78" t="s">
-        <v>65</v>
       </c>
       <c r="F78"/>
       <c r="G78">
-        <v>0</v>
+        <v>3.8331721839844031</v>
       </c>
       <c r="H78">
-        <v>33.465049564599383</v>
+        <v>37.923608188726917</v>
       </c>
       <c r="I78">
-        <v>24.862489673015865</v>
+        <v>29.321048297143395</v>
       </c>
       <c r="J78"/>
       <c r="K78">
@@ -4464,23 +4613,23 @@
         <v>478</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
         <v>61</v>
-      </c>
-      <c r="E79" t="s">
-        <v>65</v>
       </c>
       <c r="F79"/>
       <c r="G79">
-        <v>0</v>
+        <v>29.177887082645046</v>
       </c>
       <c r="H79">
-        <v>91.373543117176183</v>
+        <v>98.179678629896785</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>114.90729879084418</v>
       </c>
       <c r="J79"/>
       <c r="K79">
@@ -4501,23 +4650,23 @@
         <v>575</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" t="s">
         <v>61</v>
-      </c>
-      <c r="E80" t="s">
-        <v>65</v>
       </c>
       <c r="F80"/>
       <c r="G80">
-        <v>0</v>
+        <v>18.353357848724546</v>
       </c>
       <c r="H80">
-        <v>64.823996534674123</v>
+        <v>68.450686636624027</v>
       </c>
       <c r="I80">
-        <v>65.765251593144242</v>
+        <v>69.391941695094147</v>
       </c>
       <c r="J80"/>
       <c r="K80">
@@ -4538,23 +4687,23 @@
         <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" t="s">
         <v>61</v>
-      </c>
-      <c r="E81" t="s">
-        <v>65</v>
       </c>
       <c r="F81"/>
       <c r="G81">
-        <v>0</v>
+        <v>14.748368709217736</v>
       </c>
       <c r="H81">
-        <v>50.029479947621532</v>
+        <v>53.248168642639719</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>65.18774299406752</v>
       </c>
       <c r="J81"/>
       <c r="K81">
@@ -4575,23 +4724,23 @@
         <v>143</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" t="s">
         <v>61</v>
-      </c>
-      <c r="E82" t="s">
-        <v>65</v>
       </c>
       <c r="F82"/>
       <c r="G82">
-        <v>0</v>
+        <v>19.332668045765196</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>40.625737318309788</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>24.366350538073803</v>
       </c>
       <c r="J82"/>
       <c r="K82">
@@ -4612,23 +4761,23 @@
         <v>391</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" t="s">
         <v>61</v>
-      </c>
-      <c r="E83" t="s">
-        <v>65</v>
       </c>
       <c r="F83"/>
       <c r="G83">
-        <v>0</v>
+        <v>14.462497030406064</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>35.759408763544251</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>34.009699996194492</v>
       </c>
       <c r="J83"/>
       <c r="K83">
@@ -4649,23 +4798,23 @@
         <v>377</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84"/>
       <c r="G84">
-        <v>4.2035794958913399</v>
+        <v>4.2635794958913396</v>
       </c>
       <c r="H84">
-        <v>18.494222476251572</v>
+        <v>18.554222476251571</v>
       </c>
       <c r="I84">
-        <v>16.585664910095669</v>
+        <v>16.645664910095668</v>
       </c>
       <c r="J84"/>
       <c r="K84">
@@ -4686,23 +4835,23 @@
         <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85"/>
       <c r="G85">
-        <v>17.354699897985682</v>
+        <v>18.300886093580921</v>
       </c>
       <c r="H85">
-        <v>27.309288664182667</v>
+        <v>28.255474859777905</v>
       </c>
       <c r="I85">
-        <v>33.417766499281242</v>
+        <v>34.363952694876481</v>
       </c>
       <c r="J85"/>
       <c r="K85">
@@ -4723,23 +4872,23 @@
         <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86"/>
       <c r="G86">
-        <v>19.699763474792146</v>
+        <v>21.230548005079452</v>
       </c>
       <c r="H86">
-        <v>12.862851172674242</v>
+        <v>14.393635702961548</v>
       </c>
       <c r="I86">
-        <v>22.815208355988059</v>
+        <v>24.345992886275365</v>
       </c>
       <c r="J86"/>
       <c r="K86">
@@ -4760,23 +4909,23 @@
         <v>363</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87"/>
       <c r="G87">
-        <v>55.940303255886526</v>
+        <v>65.963491451818371</v>
       </c>
       <c r="H87">
-        <v>35.824778200272469</v>
+        <v>73.17352145626306</v>
       </c>
       <c r="I87">
-        <v>44.91128122491704</v>
+        <v>94.054198645606505</v>
       </c>
       <c r="J87"/>
       <c r="K87">
@@ -4797,23 +4946,23 @@
         <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F88"/>
       <c r="G88">
-        <v>27.757561385369321</v>
+        <v>29.639403546665026</v>
       </c>
       <c r="H88">
-        <v>20.71965144747309</v>
+        <v>22.601493608768795</v>
       </c>
       <c r="I88">
-        <v>26.828986446857936</v>
+        <v>28.710828608153641</v>
       </c>
       <c r="J88"/>
       <c r="K88">
@@ -4834,23 +4983,23 @@
         <v>597</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E89" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89"/>
       <c r="G89">
-        <v>38.578926843512029</v>
+        <v>41.884431347236898</v>
       </c>
       <c r="H89">
-        <v>31.324479472475534</v>
+        <v>34.629983976200407</v>
       </c>
       <c r="I89">
-        <v>36.694495496275131</v>
+        <v>40</v>
       </c>
       <c r="J89"/>
       <c r="K89">
@@ -4871,23 +5020,23 @@
         <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E90" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F90"/>
       <c r="G90">
-        <v>35.988905309673669</v>
+        <v>50.040866785216451</v>
       </c>
       <c r="H90">
-        <v>46.44677513080341</v>
+        <v>60.498736606346192</v>
       </c>
       <c r="I90">
-        <v>49.096469451979239</v>
+        <v>63.148430927522021</v>
       </c>
       <c r="J90"/>
       <c r="K90">
@@ -4908,23 +5057,23 @@
         <v>511</v>
       </c>
       <c r="C91" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F91"/>
       <c r="G91">
-        <v>4.4581846234933131</v>
+        <v>4.6628407089487593</v>
       </c>
       <c r="H91">
-        <v>13.449305953250699</v>
+        <v>13.653962038706144</v>
       </c>
       <c r="I91">
-        <v>14.504822488947349</v>
+        <v>14.709478574402794</v>
       </c>
       <c r="J91"/>
       <c r="K91">
@@ -4945,23 +5094,23 @@
         <v>537</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F92"/>
       <c r="G92">
-        <v>144.75554778668052</v>
+        <v>174.89404969114395</v>
       </c>
       <c r="H92">
-        <v>141.04605110837682</v>
+        <v>171.18455301284024</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>177.64761606724912</v>
       </c>
       <c r="J92"/>
       <c r="K92">
@@ -4982,23 +5131,23 @@
         <v>559</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E93" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F93"/>
       <c r="G93">
-        <v>44.251399149403476</v>
+        <v>52.82158901263174</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>34.218190430130214</v>
       </c>
       <c r="I93">
-        <v>31.120676792674608</v>
+        <v>39.690866655902873</v>
       </c>
       <c r="J93"/>
       <c r="K93">
@@ -5019,23 +5168,23 @@
         <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E94" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F94"/>
       <c r="G94">
-        <v>24.397538052590704</v>
+        <v>28.591158128706908</v>
       </c>
       <c r="H94">
-        <v>36.797431793776603</v>
+        <v>40.991051869892807</v>
       </c>
       <c r="I94">
-        <v>36.941368889740964</v>
+        <v>41.134988965857168</v>
       </c>
       <c r="J94"/>
       <c r="K94">
@@ -5056,23 +5205,23 @@
         <v>360</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F95"/>
       <c r="G95">
-        <v>33.934263543463693</v>
+        <v>38.427384329928465</v>
       </c>
       <c r="H95">
-        <v>32.210129307102846</v>
+        <v>36.703250093567618</v>
       </c>
       <c r="I95">
-        <v>36.636023205681873</v>
+        <v>41.129143992146645</v>
       </c>
       <c r="J95"/>
       <c r="K95">
@@ -5093,23 +5242,23 @@
         <v>163</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E96" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F96"/>
       <c r="G96">
-        <v>24.353665243362538</v>
+        <v>30.301659019307998</v>
       </c>
       <c r="H96">
-        <v>25.654330764926673</v>
+        <v>31.602324540872132</v>
       </c>
       <c r="I96">
-        <v>26.739227345469292</v>
+        <v>32.687221121414751</v>
       </c>
       <c r="J96"/>
       <c r="K96">
@@ -5130,23 +5279,23 @@
         <v>293</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E97" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F97"/>
       <c r="G97">
-        <v>18.043916660439081</v>
+        <v>21.713234949100343</v>
       </c>
       <c r="H97">
-        <v>56.379288837846971</v>
+        <v>60.04860712650823</v>
       </c>
       <c r="I97">
-        <v>60.463854006163402</v>
+        <v>64.133172294824661</v>
       </c>
       <c r="J97"/>
       <c r="K97">
@@ -5167,23 +5316,23 @@
         <v>226</v>
       </c>
       <c r="C98" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F98"/>
       <c r="G98">
-        <v>37.447478515939146</v>
+        <v>41.49544871626717</v>
       </c>
       <c r="H98">
-        <v>34.864613451701722</v>
+        <v>38.912583652029745</v>
       </c>
       <c r="I98">
-        <v>33.572815146891884</v>
+        <v>37.620785347219908</v>
       </c>
       <c r="J98"/>
       <c r="K98">
@@ -5204,23 +5353,23 @@
         <v>371</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F99"/>
       <c r="G99">
-        <v>49.986302667335991</v>
+        <v>52.77749677732092</v>
       </c>
       <c r="H99">
-        <v>38.632533601434496</v>
+        <v>41.423727711419424</v>
       </c>
       <c r="I99">
-        <v>37.75809302120814</v>
+        <v>40.549287131193068</v>
       </c>
       <c r="J99"/>
       <c r="K99">
@@ -5241,23 +5390,23 @@
         <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F100"/>
       <c r="G100">
-        <v>58.170912655979876</v>
+        <v>64.39130436388993</v>
       </c>
       <c r="H100">
-        <v>70.581299270325005</v>
+        <v>76.801690978235058</v>
       </c>
       <c r="I100">
-        <v>75.944583598738674</v>
+        <v>82.164975306648728</v>
       </c>
       <c r="J100"/>
       <c r="K100">
@@ -5278,23 +5427,23 @@
         <v>396</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F101"/>
       <c r="G101">
-        <v>16.201214404110292</v>
+        <v>17.290060330326</v>
       </c>
       <c r="H101">
-        <v>16.022229633924532</v>
+        <v>17.11107556014024</v>
       </c>
       <c r="I101">
-        <v>14.737783729673479</v>
+        <v>15.826629655889187</v>
       </c>
       <c r="J101"/>
       <c r="K101">
@@ -5315,23 +5464,23 @@
         <v>477</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E102" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F102"/>
       <c r="G102">
-        <v>28.662845940387186</v>
+        <v>38.577402858716816</v>
       </c>
       <c r="H102">
-        <v>34.284801760218606</v>
+        <v>44.199358678548236</v>
       </c>
       <c r="I102">
-        <v>35.445283974244404</v>
+        <v>45.359840892574034</v>
       </c>
       <c r="J102"/>
       <c r="K102">
@@ -5352,23 +5501,23 @@
         <v>155</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E103" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F103"/>
       <c r="G103">
-        <v>41.481874857065065</v>
+        <v>44.467821055132298</v>
       </c>
       <c r="H103">
-        <v>67.627572834489882</v>
+        <v>70.613519032557122</v>
       </c>
       <c r="I103">
-        <v>62.908573086097078</v>
+        <v>65.894519284164318</v>
       </c>
       <c r="J103"/>
       <c r="K103">
@@ -5389,23 +5538,23 @@
         <v>474</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E104" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F104"/>
       <c r="G104">
-        <v>54.623032811829702</v>
+        <v>62.424725642771662</v>
       </c>
       <c r="H104">
-        <v>86.006854353180998</v>
+        <v>93.808547184122958</v>
       </c>
       <c r="I104">
-        <v>136.1455782646286</v>
+        <v>143.94727109557056</v>
       </c>
       <c r="J104"/>
       <c r="K104">
@@ -5426,23 +5575,23 @@
         <v>404</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F105"/>
       <c r="G105">
-        <v>27.414068233035408</v>
+        <v>32.587206305773428</v>
       </c>
       <c r="H105">
-        <v>40.606765045529599</v>
+        <v>45.779903118267619</v>
       </c>
       <c r="I105">
-        <v>37.487788056326551</v>
+        <v>42.66092612906457</v>
       </c>
       <c r="J105"/>
       <c r="K105">
@@ -5463,23 +5612,23 @@
         <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E106" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F106"/>
       <c r="G106">
-        <v>25.007381551241217</v>
+        <v>30.218159394871574</v>
       </c>
       <c r="H106">
-        <v>51.198849145812893</v>
+        <v>56.409626989443254</v>
       </c>
       <c r="I106">
-        <v>55.479704935680509</v>
+        <v>60.690482779310869</v>
       </c>
       <c r="J106"/>
       <c r="K106">
@@ -5500,23 +5649,23 @@
         <v>199</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E107" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F107"/>
       <c r="G107">
-        <v>21.096072558327645</v>
+        <v>23.563571847916894</v>
       </c>
       <c r="H107">
-        <v>28.02696996869393</v>
+        <v>30.494469258283178</v>
       </c>
       <c r="I107">
-        <v>31.526749581410897</v>
+        <v>33.994248871000146</v>
       </c>
       <c r="J107"/>
       <c r="K107">
@@ -5537,23 +5686,23 @@
         <v>370</v>
       </c>
       <c r="C108" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F108"/>
       <c r="G108">
-        <v>39.419301243346581</v>
+        <v>43.100422338144668</v>
       </c>
       <c r="H108">
-        <v>45.331429342115577</v>
+        <v>49.012550436913664</v>
       </c>
       <c r="I108">
-        <v>46.545528660115735</v>
+        <v>50.226649754913822</v>
       </c>
       <c r="J108"/>
       <c r="K108">
@@ -5574,23 +5723,23 @@
         <v>103</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E109" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F109"/>
       <c r="G109">
-        <v>7.1030999597650073</v>
+        <v>7.1510999597650073</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1.6530708834223324</v>
       </c>
       <c r="I109">
-        <v>13.68839020778476</v>
+        <v>13.73639020778476</v>
       </c>
       <c r="J109"/>
       <c r="K109">
@@ -5611,23 +5760,23 @@
         <v>398</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E110" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F110"/>
       <c r="G110">
-        <v>43.63506917609535</v>
+        <v>45.002928028865746</v>
       </c>
       <c r="H110">
-        <v>20.707616679438118</v>
+        <v>22.075475532208518</v>
       </c>
       <c r="I110">
-        <v>22.156010032129075</v>
+        <v>23.523868884899471</v>
       </c>
       <c r="J110"/>
       <c r="K110">
@@ -5648,23 +5797,23 @@
         <v>918</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E111" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F111"/>
       <c r="G111">
-        <v>5.056680433823022</v>
+        <v>5.2708140363607638</v>
       </c>
       <c r="H111">
-        <v>7.2594522518869491</v>
+        <v>7.4735858544246909</v>
       </c>
       <c r="I111">
-        <v>3.4940699399892465</v>
+        <v>4.0093859489344386</v>
       </c>
       <c r="J111"/>
       <c r="K111">
@@ -5685,23 +5834,23 @@
         <v>925</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E112" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F112"/>
       <c r="G112">
-        <v>38.532435884047374</v>
+        <v>38.832534852780185</v>
       </c>
       <c r="H112">
-        <v>7.3414393603658112</v>
+        <v>7.6415383290986263</v>
       </c>
       <c r="I112">
-        <v>15.180221536816777</v>
+        <v>15.480320505549592</v>
       </c>
       <c r="J112"/>
       <c r="K112">
@@ -5722,23 +5871,23 @@
         <v>161</v>
       </c>
       <c r="C113" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D113" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E113" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F113"/>
       <c r="G113">
-        <v>8.5853619403012562</v>
+        <v>9.365473053082491</v>
       </c>
       <c r="H113">
-        <v>37.910829067127196</v>
+        <v>38.690940179908431</v>
       </c>
       <c r="I113">
-        <v>34.226515284405821</v>
+        <v>35.006626397187055</v>
       </c>
       <c r="J113"/>
       <c r="K113">
@@ -5759,23 +5908,23 @@
         <v>374</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E114" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F114"/>
       <c r="G114">
-        <v>26.366935034186465</v>
+        <v>29.642846982504611</v>
       </c>
       <c r="H114">
-        <v>50.697809315895768</v>
+        <v>53.973721264213914</v>
       </c>
       <c r="I114">
-        <v>48.675928719619776</v>
+        <v>51.951840667937923</v>
       </c>
       <c r="J114"/>
       <c r="K114">
@@ -5796,23 +5945,23 @@
         <v>373</v>
       </c>
       <c r="C115" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E115" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F115"/>
       <c r="G115">
-        <v>32.804744532855146</v>
+        <v>34.02929654522152</v>
       </c>
       <c r="H115">
-        <v>26.749891191078255</v>
+        <v>27.974443203444629</v>
       </c>
       <c r="I115">
-        <v>25.617887521528367</v>
+        <v>26.842439533894741</v>
       </c>
       <c r="J115"/>
       <c r="K115">
@@ -5833,23 +5982,23 @@
         <v>229</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E116" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F116"/>
       <c r="G116">
-        <v>47.816804362205339</v>
+        <v>48.120545378166476</v>
       </c>
       <c r="H116">
-        <v>8.4861092721679885</v>
+        <v>8.7898502881291289</v>
       </c>
       <c r="I116">
-        <v>18.427101639341696</v>
+        <v>18.730842655302837</v>
       </c>
       <c r="J116"/>
       <c r="K116">
@@ -5870,23 +6019,23 @@
         <v>244</v>
       </c>
       <c r="C117" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F117"/>
       <c r="G117">
-        <v>0</v>
+        <v>22.852421064221183</v>
       </c>
       <c r="H117">
-        <v>31.947950291465666</v>
+        <v>35.918715701882697</v>
       </c>
       <c r="I117">
-        <v>34.476274583316801</v>
+        <v>38.447039993733831</v>
       </c>
       <c r="J117"/>
       <c r="K117">
@@ -5907,23 +6056,23 @@
         <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E118" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F118"/>
       <c r="G118">
-        <v>33.879045550113318</v>
+        <v>37.753461077906287</v>
       </c>
       <c r="H118">
-        <v>26.485419822770627</v>
+        <v>30.359835350563596</v>
       </c>
       <c r="I118">
-        <v>32.991740116245943</v>
+        <v>36.866155644038912</v>
       </c>
       <c r="J118"/>
       <c r="K118">
@@ -5944,23 +6093,23 @@
         <v>564</v>
       </c>
       <c r="C119" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D119" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E119" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F119"/>
       <c r="G119">
-        <v>117.7468014888687</v>
+        <v>127.39760858553493</v>
       </c>
       <c r="H119">
-        <v>91.076711091288502</v>
+        <v>100.72751818795473</v>
       </c>
       <c r="I119">
-        <v>97.846868029941064</v>
+        <v>107.49767512660729</v>
       </c>
       <c r="J119"/>
       <c r="K119">
@@ -5981,23 +6130,23 @@
         <v>572</v>
       </c>
       <c r="C120" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E120" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F120"/>
       <c r="G120">
-        <v>59.450249509600631</v>
+        <v>66.666750412602653</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>115.4157080527999</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>133.52482580537435</v>
       </c>
       <c r="J120"/>
       <c r="K120">
@@ -6018,23 +6167,23 @@
         <v>543</v>
       </c>
       <c r="C121" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E121" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F121"/>
       <c r="G121">
-        <v>42.855020629971236</v>
+        <v>51.104578107063553</v>
       </c>
       <c r="H121">
-        <v>31.759834383319959</v>
+        <v>40.009391860412279</v>
       </c>
       <c r="I121">
-        <v>38.408658239384323</v>
+        <v>46.658215716476647</v>
       </c>
       <c r="J121"/>
       <c r="K121">
@@ -6055,23 +6204,23 @@
         <v>507</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D122" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E122" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F122"/>
       <c r="G122">
-        <v>114.28144799836659</v>
+        <v>123.50205553168398</v>
       </c>
       <c r="H122">
-        <v>48.310079502331405</v>
+        <v>57.530687035648796</v>
       </c>
       <c r="I122">
-        <v>65.342598911375731</v>
+        <v>74.563206444693122</v>
       </c>
       <c r="J122"/>
       <c r="K122">
@@ -6092,23 +6241,23 @@
         <v>508</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D123" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E123" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F123"/>
       <c r="G123">
-        <v>0</v>
+        <v>163.08808951750899</v>
       </c>
       <c r="H123">
-        <v>110.71617727407043</v>
+        <v>130.03605632012722</v>
       </c>
       <c r="I123">
-        <v>135.64343838663294</v>
+        <v>154.96331743268971</v>
       </c>
       <c r="J123"/>
       <c r="K123">
@@ -6129,23 +6278,23 @@
         <v>577</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D124" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E124" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F124"/>
       <c r="G124">
-        <v>165.07946460719765</v>
+        <v>178.82081534797004</v>
       </c>
       <c r="H124">
-        <v>153.26890087019774</v>
+        <v>167.01025161097013</v>
       </c>
       <c r="I124">
-        <v>163.13298491072246</v>
+        <v>176.87433565149485</v>
       </c>
       <c r="J124"/>
       <c r="K124">
@@ -6166,23 +6315,23 @@
         <v>191</v>
       </c>
       <c r="C125" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E125" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F125"/>
       <c r="G125">
-        <v>0</v>
+        <v>23.031568400047448</v>
       </c>
       <c r="H125">
-        <v>20.117814053023384</v>
+        <v>24.159722219656491</v>
       </c>
       <c r="I125">
-        <v>21.921642399963581</v>
+        <v>25.963550566596687</v>
       </c>
       <c r="J125"/>
       <c r="K125">
@@ -6203,23 +6352,23 @@
         <v>913</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F126"/>
       <c r="G126">
-        <v>81.261308204119047</v>
+        <v>90.403868471096018</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>96.529932952757349</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>110.20932173550653</v>
       </c>
       <c r="J126"/>
       <c r="K126">
@@ -6240,23 +6389,23 @@
         <v>488</v>
       </c>
       <c r="C127" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D127" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E127" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F127"/>
       <c r="G127">
-        <v>194.7399766888629</v>
+        <v>205.68234156592854</v>
       </c>
       <c r="H127">
-        <v>91.314556077977969</v>
+        <v>102.25692095504361</v>
       </c>
       <c r="I127">
-        <v>388.47154165286389</v>
+        <v>399.41390652992953</v>
       </c>
       <c r="J127"/>
       <c r="K127">
@@ -6277,13 +6426,13 @@
         <v>450</v>
       </c>
       <c r="C128" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D128" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E128" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F128"/>
       <c r="G128">
@@ -6314,13 +6463,13 @@
         <v>461</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D129" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E129" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F129"/>
       <c r="G129">
@@ -6351,13 +6500,13 @@
         <v>405</v>
       </c>
       <c r="C130" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E130" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F130"/>
       <c r="G130">
@@ -6388,13 +6537,13 @@
         <v>395</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E131" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F131"/>
       <c r="G131">
@@ -6425,13 +6574,13 @@
         <v>223</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E132" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F132"/>
       <c r="G132">
@@ -6462,13 +6611,13 @@
         <v>376</v>
       </c>
       <c r="C133" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E133" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F133"/>
       <c r="G133">
@@ -6499,13 +6648,13 @@
         <v>949</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E134" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F134"/>
       <c r="G134">
@@ -6536,13 +6685,13 @@
         <v>940</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E135" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F135"/>
       <c r="G135">
@@ -6573,13 +6722,13 @@
         <v>394</v>
       </c>
       <c r="C136" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E136" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F136"/>
       <c r="G136">
@@ -6610,13 +6759,13 @@
         <v>491</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D137" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E137" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F137"/>
       <c r="G137">
@@ -6647,13 +6796,13 @@
         <v>875</v>
       </c>
       <c r="C138" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F138"/>
       <c r="G138">
@@ -6684,13 +6833,13 @@
         <v>234</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D139" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E139" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F139"/>
       <c r="G139">
@@ -6721,13 +6870,13 @@
         <v>231</v>
       </c>
       <c r="C140" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D140" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F140"/>
       <c r="G140">
@@ -6758,13 +6907,13 @@
         <v>489</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D141" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E141" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F141"/>
       <c r="G141">
@@ -6795,13 +6944,13 @@
         <v>236</v>
       </c>
       <c r="C142" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E142" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F142"/>
       <c r="G142">
@@ -6832,13 +6981,13 @@
         <v>386</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E143" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F143"/>
       <c r="G143">
@@ -6869,13 +7018,13 @@
         <v>379</v>
       </c>
       <c r="C144" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E144" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F144"/>
       <c r="G144">
@@ -6906,13 +7055,13 @@
         <v>946</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E145" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F145"/>
       <c r="G145">
@@ -6943,13 +7092,13 @@
         <v>443</v>
       </c>
       <c r="C146" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D146" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E146" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F146"/>
       <c r="G146">
@@ -6980,13 +7129,13 @@
         <v>245</v>
       </c>
       <c r="C147" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D147" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E147" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F147"/>
       <c r="G147">
@@ -7017,13 +7166,13 @@
         <v>239</v>
       </c>
       <c r="C148" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E148" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F148"/>
       <c r="G148">
@@ -7054,13 +7203,13 @@
         <v>931</v>
       </c>
       <c r="C149" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E149" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F149"/>
       <c r="G149">
@@ -7091,13 +7240,13 @@
         <v>664</v>
       </c>
       <c r="C150" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E150" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F150"/>
       <c r="G150">
@@ -7128,13 +7277,13 @@
         <v>433</v>
       </c>
       <c r="C151" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E151" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F151"/>
       <c r="G151">
@@ -7165,13 +7314,13 @@
         <v>105</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E152" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F152"/>
       <c r="G152">
@@ -7202,13 +7351,13 @@
         <v>297</v>
       </c>
       <c r="C153" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E153" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F153"/>
       <c r="G153">
@@ -7239,13 +7388,13 @@
         <v>292</v>
       </c>
       <c r="C154" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D154" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E154" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F154"/>
       <c r="G154">
@@ -7276,13 +7425,13 @@
         <v>437</v>
       </c>
       <c r="C155" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D155" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F155"/>
       <c r="G155">
@@ -7313,13 +7462,13 @@
         <v>230</v>
       </c>
       <c r="C156" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D156" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E156" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F156"/>
       <c r="G156">
@@ -7350,13 +7499,13 @@
         <v>190</v>
       </c>
       <c r="C157" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D157" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E157" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F157"/>
       <c r="G157">
@@ -7387,13 +7536,13 @@
         <v>198</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D158" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E158" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F158"/>
       <c r="G158">
@@ -7424,13 +7573,13 @@
         <v>454</v>
       </c>
       <c r="C159" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E159" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F159"/>
       <c r="G159">
@@ -7461,13 +7610,13 @@
         <v>928</v>
       </c>
       <c r="C160" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D160" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E160" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F160"/>
       <c r="G160">
@@ -7498,13 +7647,13 @@
         <v>204</v>
       </c>
       <c r="C161" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D161" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E161" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F161"/>
       <c r="G161">
@@ -7535,13 +7684,13 @@
         <v>954</v>
       </c>
       <c r="C162" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D162" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E162" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F162"/>
       <c r="G162">
@@ -7572,13 +7721,13 @@
         <v>399</v>
       </c>
       <c r="C163" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D163" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E163" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F163"/>
       <c r="G163">
@@ -7609,13 +7758,13 @@
         <v>389</v>
       </c>
       <c r="C164" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D164" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F164"/>
       <c r="G164">
@@ -7646,13 +7795,13 @@
         <v>381</v>
       </c>
       <c r="C165" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D165" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F165"/>
       <c r="G165">
@@ -7683,13 +7832,13 @@
         <v>915</v>
       </c>
       <c r="C166" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D166" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E166" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F166"/>
       <c r="G166">
@@ -7720,13 +7869,13 @@
         <v>493</v>
       </c>
       <c r="C167" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D167" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E167" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F167"/>
       <c r="G167">
@@ -7757,13 +7906,13 @@
         <v>436</v>
       </c>
       <c r="C168" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D168" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E168" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F168"/>
       <c r="G168">
@@ -7794,13 +7943,13 @@
         <v>585</v>
       </c>
       <c r="C169" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D169" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E169" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F169"/>
       <c r="G169">
@@ -7831,13 +7980,13 @@
         <v>922</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D170" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E170" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F170"/>
       <c r="G170">
@@ -7868,13 +8017,13 @@
         <v>301</v>
       </c>
       <c r="C171" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D171" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E171" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F171"/>
       <c r="G171">
@@ -7905,13 +8054,13 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E172" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F172"/>
       <c r="G172">
@@ -7942,13 +8091,13 @@
         <v>183</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E173" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F173"/>
       <c r="G173">
@@ -7979,13 +8128,13 @@
         <v>206</v>
       </c>
       <c r="C174" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D174" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E174" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F174"/>
       <c r="G174">
@@ -8016,13 +8165,13 @@
         <v>350</v>
       </c>
       <c r="C175" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D175" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E175" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F175"/>
       <c r="G175">
@@ -8053,13 +8202,13 @@
         <v>362</v>
       </c>
       <c r="C176" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D176" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E176" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F176"/>
       <c r="G176">
@@ -8090,13 +8239,13 @@
         <v>685</v>
       </c>
       <c r="C177" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D177" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E177" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F177"/>
       <c r="G177">
@@ -8127,13 +8276,13 @@
         <v>384</v>
       </c>
       <c r="C178" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D178" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E178" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F178"/>
       <c r="G178">
@@ -8164,13 +8313,13 @@
         <v>232</v>
       </c>
       <c r="C179" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E179" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F179"/>
       <c r="G179">
@@ -8201,13 +8350,13 @@
         <v>140</v>
       </c>
       <c r="C180" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E180" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F180"/>
       <c r="G180">
@@ -8238,13 +8387,13 @@
         <v>557</v>
       </c>
       <c r="C181" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D181" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E181" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F181"/>
       <c r="G181">
@@ -8275,13 +8424,13 @@
         <v>291</v>
       </c>
       <c r="C182" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D182" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E182" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F182"/>
       <c r="G182">
@@ -8312,13 +8461,13 @@
         <v>392</v>
       </c>
       <c r="C183" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D183" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E183" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F183"/>
       <c r="G183">
@@ -8349,13 +8498,13 @@
         <v>169</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D184" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E184" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F184"/>
       <c r="G184">
@@ -8386,13 +8535,13 @@
         <v>936</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D185" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E185" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F185"/>
       <c r="G185">
@@ -8423,13 +8572,13 @@
         <v>354</v>
       </c>
       <c r="C186" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D186" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E186" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F186"/>
       <c r="G186">
@@ -8460,13 +8609,13 @@
         <v>182</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D187" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E187" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F187"/>
       <c r="G187">
@@ -8497,13 +8646,13 @@
         <v>104</v>
       </c>
       <c r="C188" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D188" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E188" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F188"/>
       <c r="G188">
@@ -8534,13 +8683,13 @@
         <v>120</v>
       </c>
       <c r="C189" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D189" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E189" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F189"/>
       <c r="G189">
@@ -8571,13 +8720,13 @@
         <v>213</v>
       </c>
       <c r="C190" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D190" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E190" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F190"/>
       <c r="G190">
@@ -8608,13 +8757,13 @@
         <v>941</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D191" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E191" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F191"/>
       <c r="G191">
@@ -8645,13 +8794,13 @@
         <v>203</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E192" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F192"/>
       <c r="G192">
@@ -8682,13 +8831,13 @@
         <v>460</v>
       </c>
       <c r="C193" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D193" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E193" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F193"/>
       <c r="G193">
@@ -8719,13 +8868,13 @@
         <v>500</v>
       </c>
       <c r="C194" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D194" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E194" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F194"/>
       <c r="G194">
@@ -8756,13 +8905,13 @@
         <v>211</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E195" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F195"/>
       <c r="G195">
@@ -8793,13 +8942,13 @@
         <v>179</v>
       </c>
       <c r="C196" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E196" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F196"/>
       <c r="G196">
@@ -8830,13 +8979,13 @@
         <v>219</v>
       </c>
       <c r="C197" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D197" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E197" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F197"/>
       <c r="G197">
@@ -8867,13 +9016,13 @@
         <v>519</v>
       </c>
       <c r="C198" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D198" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E198" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F198"/>
       <c r="G198">
@@ -8904,13 +9053,13 @@
         <v>194</v>
       </c>
       <c r="C199" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E199" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F199"/>
       <c r="G199">
@@ -8941,13 +9090,13 @@
         <v>578</v>
       </c>
       <c r="C200" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D200" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E200" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F200"/>
       <c r="G200">
@@ -8978,13 +9127,13 @@
         <v>246</v>
       </c>
       <c r="C201" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D201" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E201" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F201"/>
       <c r="G201">
@@ -9015,13 +9164,13 @@
         <v>299</v>
       </c>
       <c r="C202" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D202" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E202" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F202"/>
       <c r="G202">
@@ -9052,13 +9201,13 @@
         <v>369</v>
       </c>
       <c r="C203" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D203" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E203" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F203"/>
       <c r="G203">
@@ -9089,13 +9238,13 @@
         <v>156</v>
       </c>
       <c r="C204" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D204" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E204" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F204"/>
       <c r="G204">
@@ -9126,13 +9275,13 @@
         <v>180</v>
       </c>
       <c r="C205" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E205" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F205"/>
       <c r="G205">
@@ -9163,13 +9312,13 @@
         <v>473</v>
       </c>
       <c r="C206" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D206" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E206" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F206"/>
       <c r="G206">
@@ -9200,13 +9349,13 @@
         <v>551</v>
       </c>
       <c r="C207" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D207" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E207" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F207"/>
       <c r="G207">
@@ -9237,13 +9386,13 @@
         <v>224</v>
       </c>
       <c r="C208" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D208" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E208" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F208"/>
       <c r="G208">
@@ -9274,13 +9423,13 @@
         <v>357</v>
       </c>
       <c r="C209" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D209" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E209" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F209"/>
       <c r="G209">
@@ -9311,13 +9460,13 @@
         <v>840</v>
       </c>
       <c r="C210" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D210" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E210" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F210"/>
       <c r="G210">
@@ -9348,13 +9497,13 @@
         <v>220</v>
       </c>
       <c r="C211" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D211" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E211" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F211"/>
       <c r="G211">
@@ -9385,13 +9534,13 @@
         <v>127</v>
       </c>
       <c r="C212" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D212" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E212" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F212"/>
       <c r="G212">
@@ -9422,13 +9571,13 @@
         <v>202</v>
       </c>
       <c r="C213" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D213" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E213" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F213"/>
       <c r="G213">
@@ -9459,13 +9608,13 @@
         <v>458</v>
       </c>
       <c r="C214" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D214" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E214" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F214"/>
       <c r="G214">
@@ -9496,13 +9645,13 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D215" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E215" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F215"/>
       <c r="G215">
@@ -9533,13 +9682,13 @@
         <v>172</v>
       </c>
       <c r="C216" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D216" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E216" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F216"/>
       <c r="G216">
@@ -9570,13 +9719,13 @@
         <v>364</v>
       </c>
       <c r="C217" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D217" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E217" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F217"/>
       <c r="G217">
@@ -9607,13 +9756,13 @@
         <v>243</v>
       </c>
       <c r="C218" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D218" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E218" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F218"/>
       <c r="G218">
@@ -9644,13 +9793,13 @@
         <v>847</v>
       </c>
       <c r="C219" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D219" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E219" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F219"/>
       <c r="G219">
@@ -9681,13 +9830,13 @@
         <v>102</v>
       </c>
       <c r="C220" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D220" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E220" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F220"/>
       <c r="G220">
@@ -9718,13 +9867,13 @@
         <v>366</v>
       </c>
       <c r="C221" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D221" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E221" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F221"/>
       <c r="G221">
@@ -9755,13 +9904,13 @@
         <v>375</v>
       </c>
       <c r="C222" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D222" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E222" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F222"/>
       <c r="G222">
@@ -9792,13 +9941,13 @@
         <v>212</v>
       </c>
       <c r="C223" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D223" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E223" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F223"/>
       <c r="G223">
@@ -9829,13 +9978,13 @@
         <v>380</v>
       </c>
       <c r="C224" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D224" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E224" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F224"/>
       <c r="G224">
@@ -9866,13 +10015,13 @@
         <v>221</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D225" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E225" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F225"/>
       <c r="G225">
@@ -9903,13 +10052,13 @@
         <v>181</v>
       </c>
       <c r="C226" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D226" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E226" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F226"/>
       <c r="G226">
@@ -9940,13 +10089,13 @@
         <v>439</v>
       </c>
       <c r="C227" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D227" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E227" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F227"/>
       <c r="G227">
@@ -9977,13 +10126,13 @@
         <v>215</v>
       </c>
       <c r="C228" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D228" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E228" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F228"/>
       <c r="G228">
@@ -10014,13 +10163,13 @@
         <v>151</v>
       </c>
       <c r="C229" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D229" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E229" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F229"/>
       <c r="G229">
@@ -10051,13 +10200,13 @@
         <v>153</v>
       </c>
       <c r="C230" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D230" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E230" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F230"/>
       <c r="G230">
@@ -10088,13 +10237,13 @@
         <v>841</v>
       </c>
       <c r="C231" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D231" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E231" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F231"/>
       <c r="G231">
@@ -10125,13 +10274,13 @@
         <v>217</v>
       </c>
       <c r="C232" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D232" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E232" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F232"/>
       <c r="G232">
@@ -10162,13 +10311,13 @@
         <v>214</v>
       </c>
       <c r="C233" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D233" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E233" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F233"/>
       <c r="G233">
@@ -10199,13 +10348,13 @@
         <v>175</v>
       </c>
       <c r="C234" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D234" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E234" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F234"/>
       <c r="G234">
@@ -10236,13 +10385,13 @@
         <v>168</v>
       </c>
       <c r="C235" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D235" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E235" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F235"/>
       <c r="G235">
@@ -10273,13 +10422,13 @@
         <v>247</v>
       </c>
       <c r="C236" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D236" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E236" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F236"/>
       <c r="G236">
@@ -10310,13 +10459,13 @@
         <v>880</v>
       </c>
       <c r="C237" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D237" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E237" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F237"/>
       <c r="G237">
@@ -10347,13 +10496,13 @@
         <v>150</v>
       </c>
       <c r="C238" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D238" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E238" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F238"/>
       <c r="G238">
@@ -10384,13 +10533,13 @@
         <v>961</v>
       </c>
       <c r="C239" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D239" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E239" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F239"/>
       <c r="G239">
@@ -10421,13 +10570,13 @@
         <v>177</v>
       </c>
       <c r="C240" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D240" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E240" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F240"/>
       <c r="G240">
@@ -10458,13 +10607,13 @@
         <v>587</v>
       </c>
       <c r="C241" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D241" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E241" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F241"/>
       <c r="G241">
@@ -10495,13 +10644,13 @@
         <v>372</v>
       </c>
       <c r="C242" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D242" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E242" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F242"/>
       <c r="G242">
@@ -10532,13 +10681,13 @@
         <v>201</v>
       </c>
       <c r="C243" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D243" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E243" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F243"/>
       <c r="G243">
@@ -10569,13 +10718,13 @@
         <v>919</v>
       </c>
       <c r="C244" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D244" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E244" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F244"/>
       <c r="G244">
@@ -10606,13 +10755,13 @@
         <v>122</v>
       </c>
       <c r="C245" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D245" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E245" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F245"/>
       <c r="G245">
@@ -10643,13 +10792,13 @@
         <v>208</v>
       </c>
       <c r="C246" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D246" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E246" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F246"/>
       <c r="G246">
@@ -10680,13 +10829,13 @@
         <v>209</v>
       </c>
       <c r="C247" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D247" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E247" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F247"/>
       <c r="G247">
@@ -10717,13 +10866,13 @@
         <v>210</v>
       </c>
       <c r="C248" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D248" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E248" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F248"/>
       <c r="G248">
@@ -10754,13 +10903,13 @@
         <v>329</v>
       </c>
       <c r="C249" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D249" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E249" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F249"/>
       <c r="G249">
@@ -10791,13 +10940,13 @@
         <v>884</v>
       </c>
       <c r="C250" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D250" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E250" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F250"/>
       <c r="G250">
@@ -10828,13 +10977,13 @@
         <v>514</v>
       </c>
       <c r="C251" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D251" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E251" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F251"/>
       <c r="G251">
@@ -10865,13 +11014,13 @@
         <v>960</v>
       </c>
       <c r="C252" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D252" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E252" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F252"/>
       <c r="G252">
@@ -10902,13 +11051,13 @@
         <v>921</v>
       </c>
       <c r="C253" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D253" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E253" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F253"/>
       <c r="G253">
@@ -10939,13 +11088,13 @@
         <v>378</v>
       </c>
       <c r="C254" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D254" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E254" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F254"/>
       <c r="G254">
@@ -10976,13 +11125,13 @@
         <v>238</v>
       </c>
       <c r="C255" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D255" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E255" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F255"/>
       <c r="G255">
@@ -11013,13 +11162,13 @@
         <v>178</v>
       </c>
       <c r="C256" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D256" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E256" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F256"/>
       <c r="G256">
@@ -11050,13 +11199,13 @@
         <v>152</v>
       </c>
       <c r="C257" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D257" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E257" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F257"/>
       <c r="G257">
@@ -11087,13 +11236,13 @@
         <v>483</v>
       </c>
       <c r="C258" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D258" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E258" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F258"/>
       <c r="G258">
@@ -11124,13 +11273,13 @@
         <v>242</v>
       </c>
       <c r="C259" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D259" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E259" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F259"/>
       <c r="G259">
@@ -11161,13 +11310,13 @@
         <v>518</v>
       </c>
       <c r="C260" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D260" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E260" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F260"/>
       <c r="G260">
@@ -11198,13 +11347,13 @@
         <v>854</v>
       </c>
       <c r="C261" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D261" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E261" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F261"/>
       <c r="G261">
@@ -11235,13 +11384,13 @@
         <v>174</v>
       </c>
       <c r="C262" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D262" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E262" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F262"/>
       <c r="G262">
@@ -11272,13 +11421,13 @@
         <v>455</v>
       </c>
       <c r="C263" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D263" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E263" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F263"/>
       <c r="G263">
@@ -11309,13 +11458,13 @@
         <v>290</v>
       </c>
       <c r="C264" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D264" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E264" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F264"/>
       <c r="G264">
@@ -11346,13 +11495,13 @@
         <v>538</v>
       </c>
       <c r="C265" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D265" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E265" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F265"/>
       <c r="G265">
@@ -11383,13 +11532,13 @@
         <v>248</v>
       </c>
       <c r="C266" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D266" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E266" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F266"/>
       <c r="G266">
@@ -11420,13 +11569,13 @@
         <v>387</v>
       </c>
       <c r="C267" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D267" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E267" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F267"/>
       <c r="G267">
@@ -11457,13 +11606,13 @@
         <v>401</v>
       </c>
       <c r="C268" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D268" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E268" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F268"/>
       <c r="G268">
@@ -11494,13 +11643,13 @@
         <v>385</v>
       </c>
       <c r="C269" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D269" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E269" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F269"/>
       <c r="G269">
@@ -11531,13 +11680,13 @@
         <v>930</v>
       </c>
       <c r="C270" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D270" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E270" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F270"/>
       <c r="G270">
@@ -11568,13 +11717,13 @@
         <v>162</v>
       </c>
       <c r="C271" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D271" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E271" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F271"/>
       <c r="G271">
@@ -11605,13 +11754,13 @@
         <v>218</v>
       </c>
       <c r="C272" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D272" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E272" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F272"/>
       <c r="G272">
@@ -11642,13 +11791,13 @@
         <v>298</v>
       </c>
       <c r="C273" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D273" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E273" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F273"/>
       <c r="G273">
@@ -11679,13 +11828,13 @@
         <v>188</v>
       </c>
       <c r="C274" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D274" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E274" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F274"/>
       <c r="G274">
@@ -11716,13 +11865,13 @@
         <v>475</v>
       </c>
       <c r="C275" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D275" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E275" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F275"/>
       <c r="G275">
@@ -11753,13 +11902,13 @@
         <v>533</v>
       </c>
       <c r="C276" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D276" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E276" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F276"/>
       <c r="G276">
@@ -11790,13 +11939,13 @@
         <v>495</v>
       </c>
       <c r="C277" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D277" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E277" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F277"/>
       <c r="G277">
@@ -11827,13 +11976,13 @@
         <v>390</v>
       </c>
       <c r="C278" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D278" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E278" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F278"/>
       <c r="G278">
@@ -11864,13 +12013,13 @@
         <v>563</v>
       </c>
       <c r="C279" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D279" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E279" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F279"/>
       <c r="G279">
@@ -11901,23 +12050,23 @@
         <v>249</v>
       </c>
       <c r="C280" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D280" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E280" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F280"/>
       <c r="G280">
-        <v>0</v>
+        <v>32.45856515871025</v>
       </c>
       <c r="H280">
-        <v>35.958016037875929</v>
+        <v>49.763130777776823</v>
       </c>
       <c r="I280">
-        <v>37.441501400872106</v>
+        <v>51.246616140773</v>
       </c>
       <c r="J280"/>
       <c r="K280">
@@ -11938,23 +12087,23 @@
         <v>205</v>
       </c>
       <c r="C281" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D281" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E281" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F281"/>
       <c r="G281">
-        <v>0</v>
+        <v>58.109723679052586</v>
       </c>
       <c r="H281">
-        <v>48.808092997818278</v>
+        <v>78.187186206748734</v>
       </c>
       <c r="I281">
-        <v>48.700186359265658</v>
+        <v>78.079279568196114</v>
       </c>
       <c r="J281"/>
       <c r="K281">
@@ -11975,23 +12124,23 @@
         <v>228</v>
       </c>
       <c r="C282" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D282" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E282" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F282"/>
       <c r="G282">
-        <v>0</v>
+        <v>33.757508962354613</v>
       </c>
       <c r="H282">
-        <v>61.911927463957412</v>
+        <v>83.160010034733588</v>
       </c>
       <c r="I282">
-        <v>65.222022531605091</v>
+        <v>86.470105102381268</v>
       </c>
       <c r="J282"/>
       <c r="K282">
@@ -12012,23 +12161,23 @@
         <v>482</v>
       </c>
       <c r="C283" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D283" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E283" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F283"/>
       <c r="G283">
-        <v>0</v>
+        <v>52.818086462013817</v>
       </c>
       <c r="H283">
-        <v>57.00811974371446</v>
+        <v>95.53565932744381</v>
       </c>
       <c r="I283">
-        <v>59.928537581746639</v>
+        <v>98.456077165475989</v>
       </c>
       <c r="J283"/>
       <c r="K283">
@@ -12049,23 +12198,23 @@
         <v>227</v>
       </c>
       <c r="C284" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D284" t="s">
+        <v>58</v>
+      </c>
+      <c r="E284" t="s">
         <v>62</v>
-      </c>
-      <c r="E284" t="s">
-        <v>66</v>
       </c>
       <c r="F284"/>
       <c r="G284">
-        <v>59.167326703979171</v>
+        <v>70.29407754898304</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>203.92658092314397</v>
       </c>
       <c r="I284">
-        <v>169.53478786095158</v>
+        <v>180.66153870595545</v>
       </c>
       <c r="J284"/>
       <c r="K284">
@@ -12086,23 +12235,23 @@
         <v>147</v>
       </c>
       <c r="C285" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D285" t="s">
+        <v>58</v>
+      </c>
+      <c r="E285" t="s">
         <v>62</v>
-      </c>
-      <c r="E285" t="s">
-        <v>66</v>
       </c>
       <c r="F285"/>
       <c r="G285">
-        <v>86.798906922139054</v>
+        <v>102.39784319731154</v>
       </c>
       <c r="H285">
-        <v>141.64665496313069</v>
+        <v>157.24559123830318</v>
       </c>
       <c r="I285">
-        <v>135.60774044346982</v>
+        <v>151.20667671864231</v>
       </c>
       <c r="J285"/>
       <c r="K285">
@@ -12123,23 +12272,23 @@
         <v>566</v>
       </c>
       <c r="C286" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D286" t="s">
+        <v>58</v>
+      </c>
+      <c r="E286" t="s">
         <v>62</v>
-      </c>
-      <c r="E286" t="s">
-        <v>66</v>
       </c>
       <c r="F286"/>
       <c r="G286">
-        <v>101.93239554388842</v>
+        <v>136.78477676227615</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>207.88999774255464</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>212.04912881442746</v>
       </c>
       <c r="J286"/>
       <c r="K286">
@@ -12160,23 +12309,23 @@
         <v>494</v>
       </c>
       <c r="C287" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D287" t="s">
+        <v>58</v>
+      </c>
+      <c r="E287" t="s">
         <v>62</v>
-      </c>
-      <c r="E287" t="s">
-        <v>66</v>
       </c>
       <c r="F287"/>
       <c r="G287">
-        <v>178.85548082988765</v>
+        <v>200.31839219625812</v>
       </c>
       <c r="H287">
-        <v>48.02475932293374</v>
+        <v>69.48767068930421</v>
       </c>
       <c r="I287">
-        <v>130.01419329523625</v>
+        <v>151.47710466160672</v>
       </c>
       <c r="J287"/>
       <c r="K287">
@@ -12197,23 +12346,23 @@
         <v>568</v>
       </c>
       <c r="C288" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D288" t="s">
+        <v>58</v>
+      </c>
+      <c r="E288" t="s">
         <v>62</v>
-      </c>
-      <c r="E288" t="s">
-        <v>66</v>
       </c>
       <c r="F288"/>
       <c r="G288">
-        <v>55.358086180969835</v>
+        <v>79.347454129703024</v>
       </c>
       <c r="H288">
-        <v>161.54222354302462</v>
+        <v>185.53159149175781</v>
       </c>
       <c r="I288">
-        <v>70.188831333835054</v>
+        <v>94.178199282568244</v>
       </c>
       <c r="J288"/>
       <c r="K288">
@@ -12234,23 +12383,23 @@
         <v>534</v>
       </c>
       <c r="C289" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D289" t="s">
+        <v>58</v>
+      </c>
+      <c r="E289" t="s">
         <v>62</v>
-      </c>
-      <c r="E289" t="s">
-        <v>66</v>
       </c>
       <c r="F289"/>
       <c r="G289">
-        <v>0</v>
+        <v>249.45248261748441</v>
       </c>
       <c r="H289">
-        <v>456.62188778085766</v>
+        <v>494.02772261424741</v>
       </c>
       <c r="I289">
-        <v>511.3027843599229</v>
+        <v>548.70861919331264</v>
       </c>
       <c r="J289"/>
       <c r="K289">
@@ -12271,23 +12420,23 @@
         <v>388</v>
       </c>
       <c r="C290" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D290" t="s">
+        <v>58</v>
+      </c>
+      <c r="E290" t="s">
         <v>62</v>
-      </c>
-      <c r="E290" t="s">
-        <v>66</v>
       </c>
       <c r="F290"/>
       <c r="G290">
-        <v>78.297854217184124</v>
+        <v>91.61220409820595</v>
       </c>
       <c r="H290">
-        <v>240.7678026654028</v>
+        <v>254.08215254642462</v>
       </c>
       <c r="I290">
-        <v>230.10280205023966</v>
+        <v>243.41715193126149</v>
       </c>
       <c r="J290"/>
       <c r="K290">
@@ -12308,13 +12457,13 @@
         <v>440</v>
       </c>
       <c r="C291" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D291" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E291" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F291"/>
       <c r="G291">
@@ -12345,13 +12494,13 @@
         <v>945</v>
       </c>
       <c r="C292" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D292" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E292" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F292"/>
       <c r="G292">
@@ -12382,13 +12531,13 @@
         <v>146</v>
       </c>
       <c r="C293" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D293" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E293" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F293"/>
       <c r="G293">
@@ -12419,13 +12568,13 @@
         <v>480</v>
       </c>
       <c r="C294" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D294" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E294" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F294"/>
       <c r="G294">
@@ -12456,13 +12605,13 @@
         <v>496</v>
       </c>
       <c r="C295" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D295" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E295" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F295"/>
       <c r="G295">
@@ -12493,13 +12642,13 @@
         <v>623</v>
       </c>
       <c r="C296" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D296" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E296" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F296"/>
       <c r="G296">
